--- a/data/1311021 cv-char.xlsx
+++ b/data/1311021 cv-char.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,8 +14,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +52,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +349,3856 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>12872</v>
+      </c>
+      <c r="B1">
+        <v>-255</v>
+      </c>
+      <c r="C1">
+        <v>75</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>722.17</v>
+      </c>
+      <c r="F1">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>12923</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>722.17</v>
+      </c>
+      <c r="F2">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>12975</v>
+      </c>
+      <c r="B3">
+        <v>-69</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>724.61</v>
+      </c>
+      <c r="F3">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>13027</v>
+      </c>
+      <c r="B4">
+        <v>-11</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>720.95</v>
+      </c>
+      <c r="F4">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>13079</v>
+      </c>
+      <c r="B5">
+        <v>-255</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>722.17</v>
+      </c>
+      <c r="F5">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>13131</v>
+      </c>
+      <c r="B6">
+        <v>-57</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>722.17</v>
+      </c>
+      <c r="F6">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>13184</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>723.39</v>
+      </c>
+      <c r="F7">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>13236</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>719.73</v>
+      </c>
+      <c r="F8">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>13288</v>
+      </c>
+      <c r="B9">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>723.39</v>
+      </c>
+      <c r="F9">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>13340</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>720.95</v>
+      </c>
+      <c r="F10">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>13392</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>723.39</v>
+      </c>
+      <c r="F11">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>13444</v>
+      </c>
+      <c r="B12">
+        <v>-34</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>720.95</v>
+      </c>
+      <c r="F12">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13496</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <v>723.39</v>
+      </c>
+      <c r="F13">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13548</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>724.61</v>
+      </c>
+      <c r="F14">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>13600</v>
+      </c>
+      <c r="B15">
+        <v>-34</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>722.17</v>
+      </c>
+      <c r="F15">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>13652</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>78</v>
+      </c>
+      <c r="E16">
+        <v>722.17</v>
+      </c>
+      <c r="F16">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>13705</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>83</v>
+      </c>
+      <c r="E17">
+        <v>720.95</v>
+      </c>
+      <c r="F17">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>13757</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>723.39</v>
+      </c>
+      <c r="F18">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>13809</v>
+      </c>
+      <c r="B19">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>88</v>
+      </c>
+      <c r="D19">
+        <v>93</v>
+      </c>
+      <c r="E19">
+        <v>724.61</v>
+      </c>
+      <c r="F19">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>13862</v>
+      </c>
+      <c r="B20">
+        <v>-57</v>
+      </c>
+      <c r="C20">
+        <v>104</v>
+      </c>
+      <c r="D20">
+        <v>99</v>
+      </c>
+      <c r="E20">
+        <v>720.95</v>
+      </c>
+      <c r="F20">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>13913</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>104</v>
+      </c>
+      <c r="D21">
+        <v>104</v>
+      </c>
+      <c r="E21">
+        <v>722.17</v>
+      </c>
+      <c r="F21">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>13965</v>
+      </c>
+      <c r="B22">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>105</v>
+      </c>
+      <c r="D22">
+        <v>109</v>
+      </c>
+      <c r="E22">
+        <v>722.17</v>
+      </c>
+      <c r="F22">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>14017</v>
+      </c>
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>107</v>
+      </c>
+      <c r="D23">
+        <v>114</v>
+      </c>
+      <c r="E23">
+        <v>724.61</v>
+      </c>
+      <c r="F23">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>14069</v>
+      </c>
+      <c r="B24">
+        <v>-46</v>
+      </c>
+      <c r="C24">
+        <v>123</v>
+      </c>
+      <c r="D24">
+        <v>119</v>
+      </c>
+      <c r="E24">
+        <v>722.17</v>
+      </c>
+      <c r="F24">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>14121</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>123</v>
+      </c>
+      <c r="D25">
+        <v>125</v>
+      </c>
+      <c r="E25">
+        <v>720.95</v>
+      </c>
+      <c r="F25">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>14174</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>127</v>
+      </c>
+      <c r="D26">
+        <v>130</v>
+      </c>
+      <c r="E26">
+        <v>724.61</v>
+      </c>
+      <c r="F26">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>14226</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>133</v>
+      </c>
+      <c r="D27">
+        <v>135</v>
+      </c>
+      <c r="E27">
+        <v>722.17</v>
+      </c>
+      <c r="F27">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>14278</v>
+      </c>
+      <c r="B28">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>135</v>
+      </c>
+      <c r="D28">
+        <v>140</v>
+      </c>
+      <c r="E28">
+        <v>720.95</v>
+      </c>
+      <c r="F28">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>14330</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>145</v>
+      </c>
+      <c r="D29">
+        <v>145</v>
+      </c>
+      <c r="E29">
+        <v>722.17</v>
+      </c>
+      <c r="F29">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>14382</v>
+      </c>
+      <c r="B30">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>145</v>
+      </c>
+      <c r="D30">
+        <v>151</v>
+      </c>
+      <c r="E30">
+        <v>720.95</v>
+      </c>
+      <c r="F30">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>14434</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>155</v>
+      </c>
+      <c r="D31">
+        <v>156</v>
+      </c>
+      <c r="E31">
+        <v>722.17</v>
+      </c>
+      <c r="F31">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>14486</v>
+      </c>
+      <c r="B32">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>156</v>
+      </c>
+      <c r="D32">
+        <v>161</v>
+      </c>
+      <c r="E32">
+        <v>719.73</v>
+      </c>
+      <c r="F32">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>14538</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>164</v>
+      </c>
+      <c r="D33">
+        <v>166</v>
+      </c>
+      <c r="E33">
+        <v>722.17</v>
+      </c>
+      <c r="F33">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>14590</v>
+      </c>
+      <c r="B34">
+        <v>57</v>
+      </c>
+      <c r="C34">
+        <v>166</v>
+      </c>
+      <c r="D34">
+        <v>171</v>
+      </c>
+      <c r="E34">
+        <v>723.39</v>
+      </c>
+      <c r="F34">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>14643</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>174</v>
+      </c>
+      <c r="D35">
+        <v>177</v>
+      </c>
+      <c r="E35">
+        <v>722.17</v>
+      </c>
+      <c r="F35">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>14695</v>
+      </c>
+      <c r="B36">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>178</v>
+      </c>
+      <c r="D36">
+        <v>182</v>
+      </c>
+      <c r="E36">
+        <v>724.61</v>
+      </c>
+      <c r="F36">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>14747</v>
+      </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>184</v>
+      </c>
+      <c r="D37">
+        <v>187</v>
+      </c>
+      <c r="E37">
+        <v>722.17</v>
+      </c>
+      <c r="F37">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>14799</v>
+      </c>
+      <c r="B38">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>187</v>
+      </c>
+      <c r="D38">
+        <v>192</v>
+      </c>
+      <c r="E38">
+        <v>722.17</v>
+      </c>
+      <c r="F38">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>14851</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>194</v>
+      </c>
+      <c r="D39">
+        <v>198</v>
+      </c>
+      <c r="E39">
+        <v>720.95</v>
+      </c>
+      <c r="F39">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>14903</v>
+      </c>
+      <c r="B40">
+        <v>69</v>
+      </c>
+      <c r="C40">
+        <v>197</v>
+      </c>
+      <c r="D40">
+        <v>203</v>
+      </c>
+      <c r="E40">
+        <v>722.17</v>
+      </c>
+      <c r="F40">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>14955</v>
+      </c>
+      <c r="B41">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>206</v>
+      </c>
+      <c r="D41">
+        <v>208</v>
+      </c>
+      <c r="E41">
+        <v>723.39</v>
+      </c>
+      <c r="F41">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>15007</v>
+      </c>
+      <c r="B42">
+        <v>69</v>
+      </c>
+      <c r="C42">
+        <v>207</v>
+      </c>
+      <c r="D42">
+        <v>213</v>
+      </c>
+      <c r="E42">
+        <v>724.61</v>
+      </c>
+      <c r="F42">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>15059</v>
+      </c>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>215</v>
+      </c>
+      <c r="D43">
+        <v>218</v>
+      </c>
+      <c r="E43">
+        <v>722.17</v>
+      </c>
+      <c r="F43">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>15111</v>
+      </c>
+      <c r="B44">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>222</v>
+      </c>
+      <c r="D44">
+        <v>224</v>
+      </c>
+      <c r="E44">
+        <v>722.17</v>
+      </c>
+      <c r="F44">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>15163</v>
+      </c>
+      <c r="B45">
+        <v>80</v>
+      </c>
+      <c r="C45">
+        <v>222</v>
+      </c>
+      <c r="D45">
+        <v>229</v>
+      </c>
+      <c r="E45">
+        <v>720.95</v>
+      </c>
+      <c r="F45">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>15215</v>
+      </c>
+      <c r="B46">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>228</v>
+      </c>
+      <c r="D46">
+        <v>234</v>
+      </c>
+      <c r="E46">
+        <v>722.17</v>
+      </c>
+      <c r="F46">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>15267</v>
+      </c>
+      <c r="B47">
+        <v>57</v>
+      </c>
+      <c r="C47">
+        <v>234</v>
+      </c>
+      <c r="D47">
+        <v>239</v>
+      </c>
+      <c r="E47">
+        <v>722.17</v>
+      </c>
+      <c r="F47">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>15319</v>
+      </c>
+      <c r="B48">
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>238</v>
+      </c>
+      <c r="D48">
+        <v>244</v>
+      </c>
+      <c r="E48">
+        <v>719.73</v>
+      </c>
+      <c r="F48">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>15372</v>
+      </c>
+      <c r="B49">
+        <v>92</v>
+      </c>
+      <c r="C49">
+        <v>242</v>
+      </c>
+      <c r="D49">
+        <v>250</v>
+      </c>
+      <c r="E49">
+        <v>722.17</v>
+      </c>
+      <c r="F49">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>15423</v>
+      </c>
+      <c r="B50">
+        <v>115</v>
+      </c>
+      <c r="C50">
+        <v>245</v>
+      </c>
+      <c r="D50">
+        <v>255</v>
+      </c>
+      <c r="E50">
+        <v>722.17</v>
+      </c>
+      <c r="F50">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>15475</v>
+      </c>
+      <c r="B51">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>255</v>
+      </c>
+      <c r="D51">
+        <v>260</v>
+      </c>
+      <c r="E51">
+        <v>722.17</v>
+      </c>
+      <c r="F51">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>15528</v>
+      </c>
+      <c r="B52">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>259</v>
+      </c>
+      <c r="D52">
+        <v>265</v>
+      </c>
+      <c r="E52">
+        <v>722.17</v>
+      </c>
+      <c r="F52">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>15579</v>
+      </c>
+      <c r="B53">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>265</v>
+      </c>
+      <c r="D53">
+        <v>270</v>
+      </c>
+      <c r="E53">
+        <v>722.17</v>
+      </c>
+      <c r="F53">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>15631</v>
+      </c>
+      <c r="B54">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>274</v>
+      </c>
+      <c r="D54">
+        <v>276</v>
+      </c>
+      <c r="E54">
+        <v>723.39</v>
+      </c>
+      <c r="F54">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>15683</v>
+      </c>
+      <c r="B55">
+        <v>69</v>
+      </c>
+      <c r="C55">
+        <v>275</v>
+      </c>
+      <c r="D55">
+        <v>281</v>
+      </c>
+      <c r="E55">
+        <v>720.95</v>
+      </c>
+      <c r="F55">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>15735</v>
+      </c>
+      <c r="B56">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>280</v>
+      </c>
+      <c r="D56">
+        <v>286</v>
+      </c>
+      <c r="E56">
+        <v>723.39</v>
+      </c>
+      <c r="F56">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>15787</v>
+      </c>
+      <c r="B57">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>284</v>
+      </c>
+      <c r="D57">
+        <v>291</v>
+      </c>
+      <c r="E57">
+        <v>723.39</v>
+      </c>
+      <c r="F57">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>15840</v>
+      </c>
+      <c r="B58">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>290</v>
+      </c>
+      <c r="D58">
+        <v>296</v>
+      </c>
+      <c r="E58">
+        <v>723.39</v>
+      </c>
+      <c r="F58">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>15892</v>
+      </c>
+      <c r="B59">
+        <v>-255</v>
+      </c>
+      <c r="C59">
+        <v>297</v>
+      </c>
+      <c r="D59">
+        <v>302</v>
+      </c>
+      <c r="E59">
+        <v>720.95</v>
+      </c>
+      <c r="F59">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>15944</v>
+      </c>
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>302</v>
+      </c>
+      <c r="D60">
+        <v>307</v>
+      </c>
+      <c r="E60">
+        <v>723.39</v>
+      </c>
+      <c r="F60">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>15996</v>
+      </c>
+      <c r="B61">
+        <v>92</v>
+      </c>
+      <c r="C61">
+        <v>304</v>
+      </c>
+      <c r="D61">
+        <v>312</v>
+      </c>
+      <c r="E61">
+        <v>722.17</v>
+      </c>
+      <c r="F61">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>16048</v>
+      </c>
+      <c r="B62">
+        <v>57</v>
+      </c>
+      <c r="C62">
+        <v>312</v>
+      </c>
+      <c r="D62">
+        <v>317</v>
+      </c>
+      <c r="E62">
+        <v>722.17</v>
+      </c>
+      <c r="F62">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>16100</v>
+      </c>
+      <c r="B63">
+        <v>255</v>
+      </c>
+      <c r="C63">
+        <v>317</v>
+      </c>
+      <c r="D63">
+        <v>323</v>
+      </c>
+      <c r="E63">
+        <v>722.17</v>
+      </c>
+      <c r="F63">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>16152</v>
+      </c>
+      <c r="B64">
+        <v>46</v>
+      </c>
+      <c r="C64">
+        <v>324</v>
+      </c>
+      <c r="D64">
+        <v>328</v>
+      </c>
+      <c r="E64">
+        <v>720.95</v>
+      </c>
+      <c r="F64">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>16205</v>
+      </c>
+      <c r="B65">
+        <v>80</v>
+      </c>
+      <c r="C65">
+        <v>326</v>
+      </c>
+      <c r="D65">
+        <v>333</v>
+      </c>
+      <c r="E65">
+        <v>722.17</v>
+      </c>
+      <c r="F65">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>16256</v>
+      </c>
+      <c r="B66">
+        <v>46</v>
+      </c>
+      <c r="C66">
+        <v>334</v>
+      </c>
+      <c r="D66">
+        <v>338</v>
+      </c>
+      <c r="E66">
+        <v>720.95</v>
+      </c>
+      <c r="F66">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>16308</v>
+      </c>
+      <c r="B67">
+        <v>57</v>
+      </c>
+      <c r="C67">
+        <v>338</v>
+      </c>
+      <c r="D67">
+        <v>343</v>
+      </c>
+      <c r="E67">
+        <v>724.61</v>
+      </c>
+      <c r="F67">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>16361</v>
+      </c>
+      <c r="B68">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>342</v>
+      </c>
+      <c r="D68">
+        <v>348</v>
+      </c>
+      <c r="E68">
+        <v>723.39</v>
+      </c>
+      <c r="F68">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>16413</v>
+      </c>
+      <c r="B69">
+        <v>46</v>
+      </c>
+      <c r="C69">
+        <v>350</v>
+      </c>
+      <c r="D69">
+        <v>354</v>
+      </c>
+      <c r="E69">
+        <v>722.17</v>
+      </c>
+      <c r="F69">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>16465</v>
+      </c>
+      <c r="B70">
+        <v>80</v>
+      </c>
+      <c r="C70">
+        <v>352</v>
+      </c>
+      <c r="D70">
+        <v>359</v>
+      </c>
+      <c r="E70">
+        <v>720.95</v>
+      </c>
+      <c r="F70">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>16518</v>
+      </c>
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>358</v>
+      </c>
+      <c r="D71">
+        <v>364</v>
+      </c>
+      <c r="E71">
+        <v>722.17</v>
+      </c>
+      <c r="F71">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>16569</v>
+      </c>
+      <c r="B72">
+        <v>46</v>
+      </c>
+      <c r="C72">
+        <v>365</v>
+      </c>
+      <c r="D72">
+        <v>369</v>
+      </c>
+      <c r="E72">
+        <v>722.17</v>
+      </c>
+      <c r="F72">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>16621</v>
+      </c>
+      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>368</v>
+      </c>
+      <c r="D73">
+        <v>375</v>
+      </c>
+      <c r="E73">
+        <v>724.61</v>
+      </c>
+      <c r="F73">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>16673</v>
+      </c>
+      <c r="B74">
+        <v>80</v>
+      </c>
+      <c r="C74">
+        <v>373</v>
+      </c>
+      <c r="D74">
+        <v>380</v>
+      </c>
+      <c r="E74">
+        <v>724.61</v>
+      </c>
+      <c r="F74">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>16726</v>
+      </c>
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>378</v>
+      </c>
+      <c r="D75">
+        <v>385</v>
+      </c>
+      <c r="E75">
+        <v>722.17</v>
+      </c>
+      <c r="F75">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>16778</v>
+      </c>
+      <c r="B76">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>383</v>
+      </c>
+      <c r="D76">
+        <v>390</v>
+      </c>
+      <c r="E76">
+        <v>722.17</v>
+      </c>
+      <c r="F76">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>16830</v>
+      </c>
+      <c r="B77">
+        <v>69</v>
+      </c>
+      <c r="C77">
+        <v>389</v>
+      </c>
+      <c r="D77">
+        <v>395</v>
+      </c>
+      <c r="E77">
+        <v>722.17</v>
+      </c>
+      <c r="F77">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>16882</v>
+      </c>
+      <c r="B78">
+        <v>92</v>
+      </c>
+      <c r="C78">
+        <v>393</v>
+      </c>
+      <c r="D78">
+        <v>401</v>
+      </c>
+      <c r="E78">
+        <v>720.95</v>
+      </c>
+      <c r="F78">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>16934</v>
+      </c>
+      <c r="B79">
+        <v>69</v>
+      </c>
+      <c r="C79">
+        <v>400</v>
+      </c>
+      <c r="D79">
+        <v>406</v>
+      </c>
+      <c r="E79">
+        <v>720.95</v>
+      </c>
+      <c r="F79">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>16986</v>
+      </c>
+      <c r="B80">
+        <v>92</v>
+      </c>
+      <c r="C80">
+        <v>403</v>
+      </c>
+      <c r="D80">
+        <v>411</v>
+      </c>
+      <c r="E80">
+        <v>722.17</v>
+      </c>
+      <c r="F80">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>17038</v>
+      </c>
+      <c r="B81">
+        <v>34</v>
+      </c>
+      <c r="C81">
+        <v>413</v>
+      </c>
+      <c r="D81">
+        <v>416</v>
+      </c>
+      <c r="E81">
+        <v>723.39</v>
+      </c>
+      <c r="F81">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>17090</v>
+      </c>
+      <c r="B82">
+        <v>69</v>
+      </c>
+      <c r="C82">
+        <v>415</v>
+      </c>
+      <c r="D82">
+        <v>421</v>
+      </c>
+      <c r="E82">
+        <v>723.39</v>
+      </c>
+      <c r="F82">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>17143</v>
+      </c>
+      <c r="B83">
+        <v>69</v>
+      </c>
+      <c r="C83">
+        <v>421</v>
+      </c>
+      <c r="D83">
+        <v>427</v>
+      </c>
+      <c r="E83">
+        <v>722.17</v>
+      </c>
+      <c r="F83">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>17195</v>
+      </c>
+      <c r="B84">
+        <v>92</v>
+      </c>
+      <c r="C84">
+        <v>424</v>
+      </c>
+      <c r="D84">
+        <v>432</v>
+      </c>
+      <c r="E84">
+        <v>723.39</v>
+      </c>
+      <c r="F84">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>17247</v>
+      </c>
+      <c r="B85">
+        <v>34</v>
+      </c>
+      <c r="C85">
+        <v>434</v>
+      </c>
+      <c r="D85">
+        <v>437</v>
+      </c>
+      <c r="E85">
+        <v>722.17</v>
+      </c>
+      <c r="F85">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>17299</v>
+      </c>
+      <c r="B86">
+        <v>46</v>
+      </c>
+      <c r="C86">
+        <v>438</v>
+      </c>
+      <c r="D86">
+        <v>442</v>
+      </c>
+      <c r="E86">
+        <v>720.95</v>
+      </c>
+      <c r="F86">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>17352</v>
+      </c>
+      <c r="B87">
+        <v>69</v>
+      </c>
+      <c r="C87">
+        <v>442</v>
+      </c>
+      <c r="D87">
+        <v>448</v>
+      </c>
+      <c r="E87">
+        <v>722.17</v>
+      </c>
+      <c r="F87">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>17403</v>
+      </c>
+      <c r="B88">
+        <v>69</v>
+      </c>
+      <c r="C88">
+        <v>447</v>
+      </c>
+      <c r="D88">
+        <v>453</v>
+      </c>
+      <c r="E88">
+        <v>723.39</v>
+      </c>
+      <c r="F88">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>17455</v>
+      </c>
+      <c r="B89">
+        <v>57</v>
+      </c>
+      <c r="C89">
+        <v>453</v>
+      </c>
+      <c r="D89">
+        <v>458</v>
+      </c>
+      <c r="E89">
+        <v>723.39</v>
+      </c>
+      <c r="F89">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>17507</v>
+      </c>
+      <c r="B90">
+        <v>57</v>
+      </c>
+      <c r="C90">
+        <v>458</v>
+      </c>
+      <c r="D90">
+        <v>463</v>
+      </c>
+      <c r="E90">
+        <v>723.39</v>
+      </c>
+      <c r="F90">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>17559</v>
+      </c>
+      <c r="B91">
+        <v>46</v>
+      </c>
+      <c r="C91">
+        <v>464</v>
+      </c>
+      <c r="D91">
+        <v>468</v>
+      </c>
+      <c r="E91">
+        <v>722.17</v>
+      </c>
+      <c r="F91">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>17611</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>466</v>
+      </c>
+      <c r="D92">
+        <v>474</v>
+      </c>
+      <c r="E92">
+        <v>723.39</v>
+      </c>
+      <c r="F92">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>17664</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+      <c r="C93">
+        <v>474</v>
+      </c>
+      <c r="D93">
+        <v>479</v>
+      </c>
+      <c r="E93">
+        <v>720.95</v>
+      </c>
+      <c r="F93">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>17716</v>
+      </c>
+      <c r="B94">
+        <v>69</v>
+      </c>
+      <c r="C94">
+        <v>478</v>
+      </c>
+      <c r="D94">
+        <v>484</v>
+      </c>
+      <c r="E94">
+        <v>722.17</v>
+      </c>
+      <c r="F94">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>17768</v>
+      </c>
+      <c r="B95">
+        <v>57</v>
+      </c>
+      <c r="C95">
+        <v>484</v>
+      </c>
+      <c r="D95">
+        <v>489</v>
+      </c>
+      <c r="E95">
+        <v>719.73</v>
+      </c>
+      <c r="F95">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>17821</v>
+      </c>
+      <c r="B96">
+        <v>80</v>
+      </c>
+      <c r="C96">
+        <v>487</v>
+      </c>
+      <c r="D96">
+        <v>494</v>
+      </c>
+      <c r="E96">
+        <v>722.17</v>
+      </c>
+      <c r="F96">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>17872</v>
+      </c>
+      <c r="B97">
+        <v>57</v>
+      </c>
+      <c r="C97">
+        <v>495</v>
+      </c>
+      <c r="D97">
+        <v>500</v>
+      </c>
+      <c r="E97">
+        <v>720.95</v>
+      </c>
+      <c r="F97">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>17924</v>
+      </c>
+      <c r="B98">
+        <v>69</v>
+      </c>
+      <c r="C98">
+        <v>499</v>
+      </c>
+      <c r="D98">
+        <v>505</v>
+      </c>
+      <c r="E98">
+        <v>723.39</v>
+      </c>
+      <c r="F98">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>17976</v>
+      </c>
+      <c r="B99">
+        <v>57</v>
+      </c>
+      <c r="C99">
+        <v>505</v>
+      </c>
+      <c r="D99">
+        <v>510</v>
+      </c>
+      <c r="E99">
+        <v>723.39</v>
+      </c>
+      <c r="F99">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>18028</v>
+      </c>
+      <c r="B100">
+        <v>80</v>
+      </c>
+      <c r="C100">
+        <v>508</v>
+      </c>
+      <c r="D100">
+        <v>515</v>
+      </c>
+      <c r="E100">
+        <v>723.39</v>
+      </c>
+      <c r="F100">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>18080</v>
+      </c>
+      <c r="B101">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>517</v>
+      </c>
+      <c r="D101">
+        <v>520</v>
+      </c>
+      <c r="E101">
+        <v>722.17</v>
+      </c>
+      <c r="F101">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>18132</v>
+      </c>
+      <c r="B102">
+        <v>80</v>
+      </c>
+      <c r="C102">
+        <v>519</v>
+      </c>
+      <c r="D102">
+        <v>526</v>
+      </c>
+      <c r="E102">
+        <v>723.39</v>
+      </c>
+      <c r="F102">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>18185</v>
+      </c>
+      <c r="B103">
+        <v>23</v>
+      </c>
+      <c r="C103">
+        <v>529</v>
+      </c>
+      <c r="D103">
+        <v>531</v>
+      </c>
+      <c r="E103">
+        <v>720.95</v>
+      </c>
+      <c r="F103">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>18237</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>527</v>
+      </c>
+      <c r="D104">
+        <v>536</v>
+      </c>
+      <c r="E104">
+        <v>720.95</v>
+      </c>
+      <c r="F104">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>18289</v>
+      </c>
+      <c r="B105">
+        <v>57</v>
+      </c>
+      <c r="C105">
+        <v>536</v>
+      </c>
+      <c r="D105">
+        <v>541</v>
+      </c>
+      <c r="E105">
+        <v>720.95</v>
+      </c>
+      <c r="F105">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>18341</v>
+      </c>
+      <c r="B106">
+        <v>57</v>
+      </c>
+      <c r="C106">
+        <v>542</v>
+      </c>
+      <c r="D106">
+        <v>547</v>
+      </c>
+      <c r="E106">
+        <v>722.17</v>
+      </c>
+      <c r="F106">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>18393</v>
+      </c>
+      <c r="B107">
+        <v>69</v>
+      </c>
+      <c r="C107">
+        <v>546</v>
+      </c>
+      <c r="D107">
+        <v>552</v>
+      </c>
+      <c r="E107">
+        <v>723.39</v>
+      </c>
+      <c r="F107">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>18445</v>
+      </c>
+      <c r="B108">
+        <v>46</v>
+      </c>
+      <c r="C108">
+        <v>553</v>
+      </c>
+      <c r="D108">
+        <v>557</v>
+      </c>
+      <c r="E108">
+        <v>723.39</v>
+      </c>
+      <c r="F108">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>18497</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>561</v>
+      </c>
+      <c r="D109">
+        <v>562</v>
+      </c>
+      <c r="E109">
+        <v>720.95</v>
+      </c>
+      <c r="F109">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>18549</v>
+      </c>
+      <c r="B110">
+        <v>80</v>
+      </c>
+      <c r="C110">
+        <v>560</v>
+      </c>
+      <c r="D110">
+        <v>567</v>
+      </c>
+      <c r="E110">
+        <v>723.39</v>
+      </c>
+      <c r="F110">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>18601</v>
+      </c>
+      <c r="B111">
+        <v>23</v>
+      </c>
+      <c r="C111">
+        <v>571</v>
+      </c>
+      <c r="D111">
+        <v>573</v>
+      </c>
+      <c r="E111">
+        <v>722.17</v>
+      </c>
+      <c r="F111">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>18654</v>
+      </c>
+      <c r="B112">
+        <v>69</v>
+      </c>
+      <c r="C112">
+        <v>572</v>
+      </c>
+      <c r="D112">
+        <v>578</v>
+      </c>
+      <c r="E112">
+        <v>723.39</v>
+      </c>
+      <c r="F112">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>18706</v>
+      </c>
+      <c r="B113">
+        <v>69</v>
+      </c>
+      <c r="C113">
+        <v>577</v>
+      </c>
+      <c r="D113">
+        <v>583</v>
+      </c>
+      <c r="E113">
+        <v>722.17</v>
+      </c>
+      <c r="F113">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>18758</v>
+      </c>
+      <c r="B114">
+        <v>34</v>
+      </c>
+      <c r="C114">
+        <v>585</v>
+      </c>
+      <c r="D114">
+        <v>588</v>
+      </c>
+      <c r="E114">
+        <v>722.17</v>
+      </c>
+      <c r="F114">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>18810</v>
+      </c>
+      <c r="B115">
+        <v>57</v>
+      </c>
+      <c r="C115">
+        <v>588</v>
+      </c>
+      <c r="D115">
+        <v>593</v>
+      </c>
+      <c r="E115">
+        <v>720.95</v>
+      </c>
+      <c r="F115">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>18863</v>
+      </c>
+      <c r="B116">
+        <v>69</v>
+      </c>
+      <c r="C116">
+        <v>593</v>
+      </c>
+      <c r="D116">
+        <v>599</v>
+      </c>
+      <c r="E116">
+        <v>720.95</v>
+      </c>
+      <c r="F116">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>18915</v>
+      </c>
+      <c r="B117">
+        <v>69</v>
+      </c>
+      <c r="C117">
+        <v>598</v>
+      </c>
+      <c r="D117">
+        <v>604</v>
+      </c>
+      <c r="E117">
+        <v>720.95</v>
+      </c>
+      <c r="F117">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>18967</v>
+      </c>
+      <c r="B118">
+        <v>69</v>
+      </c>
+      <c r="C118">
+        <v>603</v>
+      </c>
+      <c r="D118">
+        <v>609</v>
+      </c>
+      <c r="E118">
+        <v>719.73</v>
+      </c>
+      <c r="F118">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>19019</v>
+      </c>
+      <c r="B119">
+        <v>57</v>
+      </c>
+      <c r="C119">
+        <v>609</v>
+      </c>
+      <c r="D119">
+        <v>614</v>
+      </c>
+      <c r="E119">
+        <v>720.95</v>
+      </c>
+      <c r="F119">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>19073</v>
+      </c>
+      <c r="B120">
+        <v>69</v>
+      </c>
+      <c r="C120">
+        <v>614</v>
+      </c>
+      <c r="D120">
+        <v>620</v>
+      </c>
+      <c r="E120">
+        <v>723.39</v>
+      </c>
+      <c r="F120">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>19125</v>
+      </c>
+      <c r="B121">
+        <v>80</v>
+      </c>
+      <c r="C121">
+        <v>618</v>
+      </c>
+      <c r="D121">
+        <v>625</v>
+      </c>
+      <c r="E121">
+        <v>719.73</v>
+      </c>
+      <c r="F121">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>19178</v>
+      </c>
+      <c r="B122">
+        <v>69</v>
+      </c>
+      <c r="C122">
+        <v>624</v>
+      </c>
+      <c r="D122">
+        <v>630</v>
+      </c>
+      <c r="E122">
+        <v>718.51</v>
+      </c>
+      <c r="F122">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>19229</v>
+      </c>
+      <c r="B123">
+        <v>69</v>
+      </c>
+      <c r="C123">
+        <v>629</v>
+      </c>
+      <c r="D123">
+        <v>635</v>
+      </c>
+      <c r="E123">
+        <v>718.51</v>
+      </c>
+      <c r="F123">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>19281</v>
+      </c>
+      <c r="B124">
+        <v>34</v>
+      </c>
+      <c r="C124">
+        <v>638</v>
+      </c>
+      <c r="D124">
+        <v>641</v>
+      </c>
+      <c r="E124">
+        <v>717.29</v>
+      </c>
+      <c r="F124">
+        <v>34.909999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>19333</v>
+      </c>
+      <c r="B125">
+        <v>92</v>
+      </c>
+      <c r="C125">
+        <v>638</v>
+      </c>
+      <c r="D125">
+        <v>646</v>
+      </c>
+      <c r="E125">
+        <v>718.51</v>
+      </c>
+      <c r="F125">
+        <v>33.69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>19385</v>
+      </c>
+      <c r="B126">
+        <v>34</v>
+      </c>
+      <c r="C126">
+        <v>648</v>
+      </c>
+      <c r="D126">
+        <v>651</v>
+      </c>
+      <c r="E126">
+        <v>717.29</v>
+      </c>
+      <c r="F126">
+        <v>36.130000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>19438</v>
+      </c>
+      <c r="B127">
+        <v>69</v>
+      </c>
+      <c r="C127">
+        <v>650</v>
+      </c>
+      <c r="D127">
+        <v>656</v>
+      </c>
+      <c r="E127">
+        <v>717.29</v>
+      </c>
+      <c r="F127">
+        <v>38.57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>19489</v>
+      </c>
+      <c r="B128">
+        <v>57</v>
+      </c>
+      <c r="C128">
+        <v>656</v>
+      </c>
+      <c r="D128">
+        <v>661</v>
+      </c>
+      <c r="E128">
+        <v>714.84</v>
+      </c>
+      <c r="F128">
+        <v>41.02</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>19542</v>
+      </c>
+      <c r="B129">
+        <v>57</v>
+      </c>
+      <c r="C129">
+        <v>662</v>
+      </c>
+      <c r="D129">
+        <v>667</v>
+      </c>
+      <c r="E129">
+        <v>714.84</v>
+      </c>
+      <c r="F129">
+        <v>42.24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>19594</v>
+      </c>
+      <c r="B130">
+        <v>69</v>
+      </c>
+      <c r="C130">
+        <v>666</v>
+      </c>
+      <c r="D130">
+        <v>672</v>
+      </c>
+      <c r="E130">
+        <v>712.4</v>
+      </c>
+      <c r="F130">
+        <v>44.68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>19647</v>
+      </c>
+      <c r="B131">
+        <v>80</v>
+      </c>
+      <c r="C131">
+        <v>670</v>
+      </c>
+      <c r="D131">
+        <v>677</v>
+      </c>
+      <c r="E131">
+        <v>712.4</v>
+      </c>
+      <c r="F131">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>19700</v>
+      </c>
+      <c r="B132">
+        <v>80</v>
+      </c>
+      <c r="C132">
+        <v>675</v>
+      </c>
+      <c r="D132">
+        <v>682</v>
+      </c>
+      <c r="E132">
+        <v>711.18</v>
+      </c>
+      <c r="F132">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>19752</v>
+      </c>
+      <c r="B133">
+        <v>69</v>
+      </c>
+      <c r="C133">
+        <v>682</v>
+      </c>
+      <c r="D133">
+        <v>688</v>
+      </c>
+      <c r="E133">
+        <v>709.96</v>
+      </c>
+      <c r="F133">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>19803</v>
+      </c>
+      <c r="B134">
+        <v>80</v>
+      </c>
+      <c r="C134">
+        <v>686</v>
+      </c>
+      <c r="D134">
+        <v>693</v>
+      </c>
+      <c r="E134">
+        <v>708.74</v>
+      </c>
+      <c r="F134">
+        <v>50.78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>19855</v>
+      </c>
+      <c r="B135">
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>696</v>
+      </c>
+      <c r="D135">
+        <v>698</v>
+      </c>
+      <c r="E135">
+        <v>706.3</v>
+      </c>
+      <c r="F135">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>19907</v>
+      </c>
+      <c r="B136">
+        <v>69</v>
+      </c>
+      <c r="C136">
+        <v>697</v>
+      </c>
+      <c r="D136">
+        <v>703</v>
+      </c>
+      <c r="E136">
+        <v>705.08</v>
+      </c>
+      <c r="F136">
+        <v>58.11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>19959</v>
+      </c>
+      <c r="B137">
+        <v>-255</v>
+      </c>
+      <c r="C137">
+        <v>702</v>
+      </c>
+      <c r="D137">
+        <v>708</v>
+      </c>
+      <c r="E137">
+        <v>702.64</v>
+      </c>
+      <c r="F137">
+        <v>59.33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>20011</v>
+      </c>
+      <c r="B138">
+        <v>57</v>
+      </c>
+      <c r="C138">
+        <v>708</v>
+      </c>
+      <c r="D138">
+        <v>713</v>
+      </c>
+      <c r="E138">
+        <v>700.2</v>
+      </c>
+      <c r="F138">
+        <v>60.55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>20063</v>
+      </c>
+      <c r="B139">
+        <v>57</v>
+      </c>
+      <c r="C139">
+        <v>714</v>
+      </c>
+      <c r="D139">
+        <v>719</v>
+      </c>
+      <c r="E139">
+        <v>697.75</v>
+      </c>
+      <c r="F139">
+        <v>65.430000000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>20116</v>
+      </c>
+      <c r="B140">
+        <v>69</v>
+      </c>
+      <c r="C140">
+        <v>718</v>
+      </c>
+      <c r="D140">
+        <v>724</v>
+      </c>
+      <c r="E140">
+        <v>695.31</v>
+      </c>
+      <c r="F140">
+        <v>66.650000000000006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>20168</v>
+      </c>
+      <c r="B141">
+        <v>80</v>
+      </c>
+      <c r="C141">
+        <v>722</v>
+      </c>
+      <c r="D141">
+        <v>729</v>
+      </c>
+      <c r="E141">
+        <v>695.31</v>
+      </c>
+      <c r="F141">
+        <v>71.53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>20221</v>
+      </c>
+      <c r="B142">
+        <v>69</v>
+      </c>
+      <c r="C142">
+        <v>728</v>
+      </c>
+      <c r="D142">
+        <v>734</v>
+      </c>
+      <c r="E142">
+        <v>690.43</v>
+      </c>
+      <c r="F142">
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>20273</v>
+      </c>
+      <c r="B143">
+        <v>69</v>
+      </c>
+      <c r="C143">
+        <v>734</v>
+      </c>
+      <c r="D143">
+        <v>740</v>
+      </c>
+      <c r="E143">
+        <v>687.99</v>
+      </c>
+      <c r="F143">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>20324</v>
+      </c>
+      <c r="B144">
+        <v>80</v>
+      </c>
+      <c r="C144">
+        <v>738</v>
+      </c>
+      <c r="D144">
+        <v>745</v>
+      </c>
+      <c r="E144">
+        <v>686.77</v>
+      </c>
+      <c r="F144">
+        <v>78.86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>20376</v>
+      </c>
+      <c r="B145">
+        <v>57</v>
+      </c>
+      <c r="C145">
+        <v>745</v>
+      </c>
+      <c r="D145">
+        <v>750</v>
+      </c>
+      <c r="E145">
+        <v>680.66</v>
+      </c>
+      <c r="F145">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>20428</v>
+      </c>
+      <c r="B146">
+        <v>115</v>
+      </c>
+      <c r="C146">
+        <v>745</v>
+      </c>
+      <c r="D146">
+        <v>755</v>
+      </c>
+      <c r="E146">
+        <v>679.44</v>
+      </c>
+      <c r="F146">
+        <v>86.18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>20480</v>
+      </c>
+      <c r="B147">
+        <v>23</v>
+      </c>
+      <c r="C147">
+        <v>758</v>
+      </c>
+      <c r="D147">
+        <v>760</v>
+      </c>
+      <c r="E147">
+        <v>673.34</v>
+      </c>
+      <c r="F147">
+        <v>92.29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>20532</v>
+      </c>
+      <c r="B148">
+        <v>69</v>
+      </c>
+      <c r="C148">
+        <v>760</v>
+      </c>
+      <c r="D148">
+        <v>766</v>
+      </c>
+      <c r="E148">
+        <v>672.12</v>
+      </c>
+      <c r="F148">
+        <v>91.06</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>20584</v>
+      </c>
+      <c r="B149">
+        <v>69</v>
+      </c>
+      <c r="C149">
+        <v>765</v>
+      </c>
+      <c r="D149">
+        <v>771</v>
+      </c>
+      <c r="E149">
+        <v>668.46</v>
+      </c>
+      <c r="F149">
+        <v>93.51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>20636</v>
+      </c>
+      <c r="B150">
+        <v>46</v>
+      </c>
+      <c r="C150">
+        <v>772</v>
+      </c>
+      <c r="D150">
+        <v>776</v>
+      </c>
+      <c r="E150">
+        <v>666.02</v>
+      </c>
+      <c r="F150">
+        <v>103.27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>20688</v>
+      </c>
+      <c r="B151">
+        <v>80</v>
+      </c>
+      <c r="C151">
+        <v>774</v>
+      </c>
+      <c r="D151">
+        <v>781</v>
+      </c>
+      <c r="E151">
+        <v>663.57</v>
+      </c>
+      <c r="F151">
+        <v>104.49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>20741</v>
+      </c>
+      <c r="B152">
+        <v>69</v>
+      </c>
+      <c r="C152">
+        <v>780</v>
+      </c>
+      <c r="D152">
+        <v>786</v>
+      </c>
+      <c r="E152">
+        <v>656.25</v>
+      </c>
+      <c r="F152">
+        <v>108.15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>20793</v>
+      </c>
+      <c r="B153">
+        <v>23</v>
+      </c>
+      <c r="C153">
+        <v>790</v>
+      </c>
+      <c r="D153">
+        <v>792</v>
+      </c>
+      <c r="E153">
+        <v>655.03</v>
+      </c>
+      <c r="F153">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>20845</v>
+      </c>
+      <c r="B154">
+        <v>115</v>
+      </c>
+      <c r="C154">
+        <v>787</v>
+      </c>
+      <c r="D154">
+        <v>797</v>
+      </c>
+      <c r="E154">
+        <v>648.92999999999995</v>
+      </c>
+      <c r="F154">
+        <v>114.26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>20897</v>
+      </c>
+      <c r="B155">
+        <v>23</v>
+      </c>
+      <c r="C155">
+        <v>800</v>
+      </c>
+      <c r="D155">
+        <v>802</v>
+      </c>
+      <c r="E155">
+        <v>644.04</v>
+      </c>
+      <c r="F155">
+        <v>117.92</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>20950</v>
+      </c>
+      <c r="B156">
+        <v>115</v>
+      </c>
+      <c r="C156">
+        <v>797</v>
+      </c>
+      <c r="D156">
+        <v>807</v>
+      </c>
+      <c r="E156">
+        <v>640.38</v>
+      </c>
+      <c r="F156">
+        <v>120.36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>21002</v>
+      </c>
+      <c r="B157">
+        <v>11</v>
+      </c>
+      <c r="C157">
+        <v>812</v>
+      </c>
+      <c r="D157">
+        <v>813</v>
+      </c>
+      <c r="E157">
+        <v>635.5</v>
+      </c>
+      <c r="F157">
+        <v>124.02</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>21054</v>
+      </c>
+      <c r="B158">
+        <v>80</v>
+      </c>
+      <c r="C158">
+        <v>811</v>
+      </c>
+      <c r="D158">
+        <v>818</v>
+      </c>
+      <c r="E158">
+        <v>631.84</v>
+      </c>
+      <c r="F158">
+        <v>127.69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>21106</v>
+      </c>
+      <c r="B159">
+        <v>57</v>
+      </c>
+      <c r="C159">
+        <v>818</v>
+      </c>
+      <c r="D159">
+        <v>823</v>
+      </c>
+      <c r="E159">
+        <v>628.16999999999996</v>
+      </c>
+      <c r="F159">
+        <v>132.57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>21159</v>
+      </c>
+      <c r="B160">
+        <v>69</v>
+      </c>
+      <c r="C160">
+        <v>822</v>
+      </c>
+      <c r="D160">
+        <v>828</v>
+      </c>
+      <c r="E160">
+        <v>622.07000000000005</v>
+      </c>
+      <c r="F160">
+        <v>135.01</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>21211</v>
+      </c>
+      <c r="B161">
+        <v>46</v>
+      </c>
+      <c r="C161">
+        <v>830</v>
+      </c>
+      <c r="D161">
+        <v>834</v>
+      </c>
+      <c r="E161">
+        <v>614.75</v>
+      </c>
+      <c r="F161">
+        <v>139.88999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>21264</v>
+      </c>
+      <c r="B162">
+        <v>69</v>
+      </c>
+      <c r="C162">
+        <v>833</v>
+      </c>
+      <c r="D162">
+        <v>839</v>
+      </c>
+      <c r="E162">
+        <v>609.86</v>
+      </c>
+      <c r="F162">
+        <v>142.33000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>21316</v>
+      </c>
+      <c r="B163">
+        <v>69</v>
+      </c>
+      <c r="C163">
+        <v>838</v>
+      </c>
+      <c r="D163">
+        <v>844</v>
+      </c>
+      <c r="E163">
+        <v>604.98</v>
+      </c>
+      <c r="F163">
+        <v>144.78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>21368</v>
+      </c>
+      <c r="B164">
+        <v>46</v>
+      </c>
+      <c r="C164">
+        <v>845</v>
+      </c>
+      <c r="D164">
+        <v>849</v>
+      </c>
+      <c r="E164">
+        <v>601.32000000000005</v>
+      </c>
+      <c r="F164">
+        <v>152.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>21420</v>
+      </c>
+      <c r="B165">
+        <v>-255</v>
+      </c>
+      <c r="C165">
+        <v>848</v>
+      </c>
+      <c r="D165">
+        <v>854</v>
+      </c>
+      <c r="E165">
+        <v>595.21</v>
+      </c>
+      <c r="F165">
+        <v>153.32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>21472</v>
+      </c>
+      <c r="B166">
+        <v>255</v>
+      </c>
+      <c r="C166">
+        <v>868</v>
+      </c>
+      <c r="D166">
+        <v>860</v>
+      </c>
+      <c r="E166">
+        <v>586.66999999999996</v>
+      </c>
+      <c r="F166">
+        <v>156.97999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>21524</v>
+      </c>
+      <c r="B167">
+        <v>69</v>
+      </c>
+      <c r="C167">
+        <v>859</v>
+      </c>
+      <c r="D167">
+        <v>865</v>
+      </c>
+      <c r="E167">
+        <v>580.57000000000005</v>
+      </c>
+      <c r="F167">
+        <v>160.63999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>21576</v>
+      </c>
+      <c r="B168">
+        <v>23</v>
+      </c>
+      <c r="C168">
+        <v>868</v>
+      </c>
+      <c r="D168">
+        <v>870</v>
+      </c>
+      <c r="E168">
+        <v>574.46</v>
+      </c>
+      <c r="F168">
+        <v>163.09</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>21628</v>
+      </c>
+      <c r="B169">
+        <v>57</v>
+      </c>
+      <c r="C169">
+        <v>870</v>
+      </c>
+      <c r="D169">
+        <v>875</v>
+      </c>
+      <c r="E169">
+        <v>570.79999999999995</v>
+      </c>
+      <c r="F169">
+        <v>167.97</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>21680</v>
+      </c>
+      <c r="B170">
+        <v>57</v>
+      </c>
+      <c r="C170">
+        <v>875</v>
+      </c>
+      <c r="D170">
+        <v>880</v>
+      </c>
+      <c r="E170">
+        <v>563.48</v>
+      </c>
+      <c r="F170">
+        <v>167.97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>21732</v>
+      </c>
+      <c r="B171">
+        <v>92</v>
+      </c>
+      <c r="C171">
+        <v>878</v>
+      </c>
+      <c r="D171">
+        <v>886</v>
+      </c>
+      <c r="E171">
+        <v>563.48</v>
+      </c>
+      <c r="F171">
+        <v>172.85</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>21784</v>
+      </c>
+      <c r="B172">
+        <v>57</v>
+      </c>
+      <c r="C172">
+        <v>886</v>
+      </c>
+      <c r="D172">
+        <v>891</v>
+      </c>
+      <c r="E172">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F172">
+        <v>175.29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>21836</v>
+      </c>
+      <c r="B173">
+        <v>23</v>
+      </c>
+      <c r="C173">
+        <v>894</v>
+      </c>
+      <c r="D173">
+        <v>896</v>
+      </c>
+      <c r="E173">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F173">
+        <v>181.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>21888</v>
+      </c>
+      <c r="B174">
+        <v>46</v>
+      </c>
+      <c r="C174">
+        <v>897</v>
+      </c>
+      <c r="D174">
+        <v>901</v>
+      </c>
+      <c r="E174">
+        <v>541.5</v>
+      </c>
+      <c r="F174">
+        <v>180.18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>21940</v>
+      </c>
+      <c r="B175">
+        <v>69</v>
+      </c>
+      <c r="C175">
+        <v>900</v>
+      </c>
+      <c r="D175">
+        <v>906</v>
+      </c>
+      <c r="E175">
+        <v>536.62</v>
+      </c>
+      <c r="F175">
+        <v>183.84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>21992</v>
+      </c>
+      <c r="B176">
+        <v>23</v>
+      </c>
+      <c r="C176">
+        <v>910</v>
+      </c>
+      <c r="D176">
+        <v>912</v>
+      </c>
+      <c r="E176">
+        <v>532.96</v>
+      </c>
+      <c r="F176">
+        <v>185.06</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>22044</v>
+      </c>
+      <c r="B177">
+        <v>80</v>
+      </c>
+      <c r="C177">
+        <v>910</v>
+      </c>
+      <c r="D177">
+        <v>917</v>
+      </c>
+      <c r="E177">
+        <v>525.63</v>
+      </c>
+      <c r="F177">
+        <v>188.72</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>22096</v>
+      </c>
+      <c r="B178">
+        <v>34</v>
+      </c>
+      <c r="C178">
+        <v>919</v>
+      </c>
+      <c r="D178">
+        <v>922</v>
+      </c>
+      <c r="E178">
+        <v>521.97</v>
+      </c>
+      <c r="F178">
+        <v>188.72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>22148</v>
+      </c>
+      <c r="B179">
+        <v>-255</v>
+      </c>
+      <c r="C179">
+        <v>921</v>
+      </c>
+      <c r="D179">
+        <v>927</v>
+      </c>
+      <c r="E179">
+        <v>518.30999999999995</v>
+      </c>
+      <c r="F179">
+        <v>192.38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>22200</v>
+      </c>
+      <c r="B180">
+        <v>69</v>
+      </c>
+      <c r="C180">
+        <v>926</v>
+      </c>
+      <c r="D180">
+        <v>932</v>
+      </c>
+      <c r="E180">
+        <v>512.21</v>
+      </c>
+      <c r="F180">
+        <v>197.27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>22253</v>
+      </c>
+      <c r="B181">
+        <v>69</v>
+      </c>
+      <c r="C181">
+        <v>932</v>
+      </c>
+      <c r="D181">
+        <v>938</v>
+      </c>
+      <c r="E181">
+        <v>504.88</v>
+      </c>
+      <c r="F181">
+        <v>197.27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>22304</v>
+      </c>
+      <c r="B182">
+        <v>80</v>
+      </c>
+      <c r="C182">
+        <v>936</v>
+      </c>
+      <c r="D182">
+        <v>943</v>
+      </c>
+      <c r="E182">
+        <v>500</v>
+      </c>
+      <c r="F182">
+        <v>200.93</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>22358</v>
+      </c>
+      <c r="B183">
+        <v>23</v>
+      </c>
+      <c r="C183">
+        <v>946</v>
+      </c>
+      <c r="D183">
+        <v>948</v>
+      </c>
+      <c r="E183">
+        <v>491.46</v>
+      </c>
+      <c r="F183">
+        <v>200.93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>22410</v>
+      </c>
+      <c r="B184">
+        <v>57</v>
+      </c>
+      <c r="C184">
+        <v>948</v>
+      </c>
+      <c r="D184">
+        <v>953</v>
+      </c>
+      <c r="E184">
+        <v>489.01</v>
+      </c>
+      <c r="F184">
+        <v>202.15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>22462</v>
+      </c>
+      <c r="B185">
+        <v>80</v>
+      </c>
+      <c r="C185">
+        <v>952</v>
+      </c>
+      <c r="D185">
+        <v>959</v>
+      </c>
+      <c r="E185">
+        <v>484.13</v>
+      </c>
+      <c r="F185">
+        <v>203.37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>22514</v>
+      </c>
+      <c r="B186">
+        <v>80</v>
+      </c>
+      <c r="C186">
+        <v>957</v>
+      </c>
+      <c r="D186">
+        <v>964</v>
+      </c>
+      <c r="E186">
+        <v>476.81</v>
+      </c>
+      <c r="F186">
+        <v>208.25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>22566</v>
+      </c>
+      <c r="B187">
+        <v>34</v>
+      </c>
+      <c r="C187">
+        <v>966</v>
+      </c>
+      <c r="D187">
+        <v>969</v>
+      </c>
+      <c r="E187">
+        <v>473.14</v>
+      </c>
+      <c r="F187">
+        <v>210.69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>22618</v>
+      </c>
+      <c r="B188">
+        <v>69</v>
+      </c>
+      <c r="C188">
+        <v>968</v>
+      </c>
+      <c r="D188">
+        <v>974</v>
+      </c>
+      <c r="E188">
+        <v>465.82</v>
+      </c>
+      <c r="F188">
+        <v>211.91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>22670</v>
+      </c>
+      <c r="B189">
+        <v>34</v>
+      </c>
+      <c r="C189">
+        <v>976</v>
+      </c>
+      <c r="D189">
+        <v>979</v>
+      </c>
+      <c r="E189">
+        <v>460.94</v>
+      </c>
+      <c r="F189">
+        <v>214.36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>22722</v>
+      </c>
+      <c r="B190">
+        <v>69</v>
+      </c>
+      <c r="C190">
+        <v>979</v>
+      </c>
+      <c r="D190">
+        <v>985</v>
+      </c>
+      <c r="E190">
+        <v>454.83</v>
+      </c>
+      <c r="F190">
+        <v>215.58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>22774</v>
+      </c>
+      <c r="B191">
+        <v>57</v>
+      </c>
+      <c r="C191">
+        <v>985</v>
+      </c>
+      <c r="D191">
+        <v>990</v>
+      </c>
+      <c r="E191">
+        <v>451.17</v>
+      </c>
+      <c r="F191">
+        <v>216.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>22827</v>
+      </c>
+      <c r="B192">
+        <v>-11</v>
+      </c>
+      <c r="C192">
+        <v>996</v>
+      </c>
+      <c r="D192">
+        <v>995</v>
+      </c>
+      <c r="E192">
+        <v>443.85</v>
+      </c>
+      <c r="F192">
+        <v>218.02</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/1311021 cv-char.xlsx
+++ b/data/1311021 cv-char.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -352,7 +353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -4201,4 +4202,9099 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F455"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>482186</v>
+      </c>
+      <c r="B2">
+        <v>-255</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>769.78</v>
+      </c>
+      <c r="F2">
+        <v>38.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>482207</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>997</v>
+      </c>
+      <c r="E3">
+        <v>772.22</v>
+      </c>
+      <c r="F3">
+        <v>37.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>482229</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>196</v>
+      </c>
+      <c r="D4">
+        <v>995</v>
+      </c>
+      <c r="E4">
+        <v>769.78</v>
+      </c>
+      <c r="F4">
+        <v>37.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>482251</v>
+      </c>
+      <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>353</v>
+      </c>
+      <c r="D5">
+        <v>993</v>
+      </c>
+      <c r="E5">
+        <v>771</v>
+      </c>
+      <c r="F5">
+        <v>39.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>482273</v>
+      </c>
+      <c r="B6">
+        <v>255</v>
+      </c>
+      <c r="C6">
+        <v>518</v>
+      </c>
+      <c r="D6">
+        <v>991</v>
+      </c>
+      <c r="E6">
+        <v>769.78</v>
+      </c>
+      <c r="F6">
+        <v>37.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>482295</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>697</v>
+      </c>
+      <c r="D7">
+        <v>989</v>
+      </c>
+      <c r="E7">
+        <v>768.55</v>
+      </c>
+      <c r="F7">
+        <v>36.130000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>482317</v>
+      </c>
+      <c r="B8">
+        <v>-255</v>
+      </c>
+      <c r="C8">
+        <v>855</v>
+      </c>
+      <c r="D8">
+        <v>986</v>
+      </c>
+      <c r="E8">
+        <v>771</v>
+      </c>
+      <c r="F8">
+        <v>39.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>482339</v>
+      </c>
+      <c r="B9">
+        <v>255</v>
+      </c>
+      <c r="C9">
+        <v>960</v>
+      </c>
+      <c r="D9">
+        <v>984</v>
+      </c>
+      <c r="E9">
+        <v>763.67</v>
+      </c>
+      <c r="F9">
+        <v>50.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>482361</v>
+      </c>
+      <c r="B10">
+        <v>-184</v>
+      </c>
+      <c r="C10">
+        <v>998</v>
+      </c>
+      <c r="D10">
+        <v>982</v>
+      </c>
+      <c r="E10">
+        <v>760.01</v>
+      </c>
+      <c r="F10">
+        <v>69.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>482383</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>978</v>
+      </c>
+      <c r="D11">
+        <v>980</v>
+      </c>
+      <c r="E11">
+        <v>761.23</v>
+      </c>
+      <c r="F11">
+        <v>88.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>482405</v>
+      </c>
+      <c r="B12">
+        <v>103</v>
+      </c>
+      <c r="C12">
+        <v>969</v>
+      </c>
+      <c r="D12">
+        <v>978</v>
+      </c>
+      <c r="E12">
+        <v>756.35</v>
+      </c>
+      <c r="F12">
+        <v>109.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>482427</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>975</v>
+      </c>
+      <c r="D13">
+        <v>975</v>
+      </c>
+      <c r="E13">
+        <v>755.13</v>
+      </c>
+      <c r="F13">
+        <v>127.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>482449</v>
+      </c>
+      <c r="B14">
+        <v>-57</v>
+      </c>
+      <c r="C14">
+        <v>978</v>
+      </c>
+      <c r="D14">
+        <v>973</v>
+      </c>
+      <c r="E14">
+        <v>756.35</v>
+      </c>
+      <c r="F14">
+        <v>144.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>482471</v>
+      </c>
+      <c r="B15">
+        <v>-23</v>
+      </c>
+      <c r="C15">
+        <v>973</v>
+      </c>
+      <c r="D15">
+        <v>971</v>
+      </c>
+      <c r="E15">
+        <v>752.69</v>
+      </c>
+      <c r="F15">
+        <v>160.63999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>482493</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>966</v>
+      </c>
+      <c r="D16">
+        <v>969</v>
+      </c>
+      <c r="E16">
+        <v>752.69</v>
+      </c>
+      <c r="F16">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>482515</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>964</v>
+      </c>
+      <c r="D17">
+        <v>967</v>
+      </c>
+      <c r="E17">
+        <v>749.02</v>
+      </c>
+      <c r="F17">
+        <v>185.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>482537</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>964</v>
+      </c>
+      <c r="D18">
+        <v>964</v>
+      </c>
+      <c r="E18">
+        <v>747.8</v>
+      </c>
+      <c r="F18">
+        <v>194.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>482560</v>
+      </c>
+      <c r="B19">
+        <v>-11</v>
+      </c>
+      <c r="C19">
+        <v>963</v>
+      </c>
+      <c r="D19">
+        <v>962</v>
+      </c>
+      <c r="E19">
+        <v>744.14</v>
+      </c>
+      <c r="F19">
+        <v>205.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>482582</v>
+      </c>
+      <c r="B20">
+        <v>-11</v>
+      </c>
+      <c r="C20">
+        <v>961</v>
+      </c>
+      <c r="D20">
+        <v>960</v>
+      </c>
+      <c r="E20">
+        <v>747.8</v>
+      </c>
+      <c r="F20">
+        <v>218.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>482604</v>
+      </c>
+      <c r="B21">
+        <v>-34</v>
+      </c>
+      <c r="C21">
+        <v>961</v>
+      </c>
+      <c r="D21">
+        <v>958</v>
+      </c>
+      <c r="E21">
+        <v>742.92</v>
+      </c>
+      <c r="F21">
+        <v>226.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>482626</v>
+      </c>
+      <c r="B22">
+        <v>-57</v>
+      </c>
+      <c r="C22">
+        <v>960</v>
+      </c>
+      <c r="D22">
+        <v>955</v>
+      </c>
+      <c r="E22">
+        <v>740.48</v>
+      </c>
+      <c r="F22">
+        <v>235.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>482648</v>
+      </c>
+      <c r="B23">
+        <v>-57</v>
+      </c>
+      <c r="C23">
+        <v>958</v>
+      </c>
+      <c r="D23">
+        <v>953</v>
+      </c>
+      <c r="E23">
+        <v>740.48</v>
+      </c>
+      <c r="F23">
+        <v>243.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>482670</v>
+      </c>
+      <c r="B24">
+        <v>-46</v>
+      </c>
+      <c r="C24">
+        <v>955</v>
+      </c>
+      <c r="D24">
+        <v>951</v>
+      </c>
+      <c r="E24">
+        <v>740.48</v>
+      </c>
+      <c r="F24">
+        <v>247.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>482692</v>
+      </c>
+      <c r="B25">
+        <v>-11</v>
+      </c>
+      <c r="C25">
+        <v>950</v>
+      </c>
+      <c r="D25">
+        <v>949</v>
+      </c>
+      <c r="E25">
+        <v>736.82</v>
+      </c>
+      <c r="F25">
+        <v>255.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>482714</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>947</v>
+      </c>
+      <c r="D26">
+        <v>947</v>
+      </c>
+      <c r="E26">
+        <v>738.04</v>
+      </c>
+      <c r="F26">
+        <v>258.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>482736</v>
+      </c>
+      <c r="B27">
+        <v>-34</v>
+      </c>
+      <c r="C27">
+        <v>947</v>
+      </c>
+      <c r="D27">
+        <v>944</v>
+      </c>
+      <c r="E27">
+        <v>734.38</v>
+      </c>
+      <c r="F27">
+        <v>266.85000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>482758</v>
+      </c>
+      <c r="B28">
+        <v>-57</v>
+      </c>
+      <c r="C28">
+        <v>947</v>
+      </c>
+      <c r="D28">
+        <v>942</v>
+      </c>
+      <c r="E28">
+        <v>730.71</v>
+      </c>
+      <c r="F28">
+        <v>270.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>482780</v>
+      </c>
+      <c r="B29">
+        <v>-69</v>
+      </c>
+      <c r="C29">
+        <v>946</v>
+      </c>
+      <c r="D29">
+        <v>940</v>
+      </c>
+      <c r="E29">
+        <v>733.15</v>
+      </c>
+      <c r="F29">
+        <v>275.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>482802</v>
+      </c>
+      <c r="B30">
+        <v>-46</v>
+      </c>
+      <c r="C30">
+        <v>942</v>
+      </c>
+      <c r="D30">
+        <v>938</v>
+      </c>
+      <c r="E30">
+        <v>731.93</v>
+      </c>
+      <c r="F30">
+        <v>282.70999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>482824</v>
+      </c>
+      <c r="B31">
+        <v>-23</v>
+      </c>
+      <c r="C31">
+        <v>938</v>
+      </c>
+      <c r="D31">
+        <v>936</v>
+      </c>
+      <c r="E31">
+        <v>730.71</v>
+      </c>
+      <c r="F31">
+        <v>287.60000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>482846</v>
+      </c>
+      <c r="B32">
+        <v>-46</v>
+      </c>
+      <c r="C32">
+        <v>937</v>
+      </c>
+      <c r="D32">
+        <v>933</v>
+      </c>
+      <c r="E32">
+        <v>728.27</v>
+      </c>
+      <c r="F32">
+        <v>288.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>482868</v>
+      </c>
+      <c r="B33">
+        <v>-46</v>
+      </c>
+      <c r="C33">
+        <v>935</v>
+      </c>
+      <c r="D33">
+        <v>931</v>
+      </c>
+      <c r="E33">
+        <v>727.05</v>
+      </c>
+      <c r="F33">
+        <v>293.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>482890</v>
+      </c>
+      <c r="B34">
+        <v>255</v>
+      </c>
+      <c r="C34">
+        <v>934</v>
+      </c>
+      <c r="D34">
+        <v>929</v>
+      </c>
+      <c r="E34">
+        <v>725.83</v>
+      </c>
+      <c r="F34">
+        <v>296.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>482912</v>
+      </c>
+      <c r="B35">
+        <v>-69</v>
+      </c>
+      <c r="C35">
+        <v>933</v>
+      </c>
+      <c r="D35">
+        <v>927</v>
+      </c>
+      <c r="E35">
+        <v>724.61</v>
+      </c>
+      <c r="F35">
+        <v>301.02999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>482934</v>
+      </c>
+      <c r="B36">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>923</v>
+      </c>
+      <c r="D36">
+        <v>925</v>
+      </c>
+      <c r="E36">
+        <v>723.39</v>
+      </c>
+      <c r="F36">
+        <v>303.47000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>482956</v>
+      </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>919</v>
+      </c>
+      <c r="D37">
+        <v>922</v>
+      </c>
+      <c r="E37">
+        <v>719.73</v>
+      </c>
+      <c r="F37">
+        <v>307.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>482978</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>919</v>
+      </c>
+      <c r="D38">
+        <v>920</v>
+      </c>
+      <c r="E38">
+        <v>719.73</v>
+      </c>
+      <c r="F38">
+        <v>309.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>483000</v>
+      </c>
+      <c r="B39">
+        <v>-11</v>
+      </c>
+      <c r="C39">
+        <v>919</v>
+      </c>
+      <c r="D39">
+        <v>918</v>
+      </c>
+      <c r="E39">
+        <v>718.51</v>
+      </c>
+      <c r="F39">
+        <v>310.79000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>483022</v>
+      </c>
+      <c r="B40">
+        <v>-34</v>
+      </c>
+      <c r="C40">
+        <v>919</v>
+      </c>
+      <c r="D40">
+        <v>916</v>
+      </c>
+      <c r="E40">
+        <v>717.29</v>
+      </c>
+      <c r="F40">
+        <v>314.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>483044</v>
+      </c>
+      <c r="B41">
+        <v>-57</v>
+      </c>
+      <c r="C41">
+        <v>919</v>
+      </c>
+      <c r="D41">
+        <v>914</v>
+      </c>
+      <c r="E41">
+        <v>716.06</v>
+      </c>
+      <c r="F41">
+        <v>315.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>483066</v>
+      </c>
+      <c r="B42">
+        <v>-46</v>
+      </c>
+      <c r="C42">
+        <v>915</v>
+      </c>
+      <c r="D42">
+        <v>911</v>
+      </c>
+      <c r="E42">
+        <v>713.62</v>
+      </c>
+      <c r="F42">
+        <v>316.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>483088</v>
+      </c>
+      <c r="B43">
+        <v>-57</v>
+      </c>
+      <c r="C43">
+        <v>914</v>
+      </c>
+      <c r="D43">
+        <v>909</v>
+      </c>
+      <c r="E43">
+        <v>711.18</v>
+      </c>
+      <c r="F43">
+        <v>319.33999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>483110</v>
+      </c>
+      <c r="B44">
+        <v>-69</v>
+      </c>
+      <c r="C44">
+        <v>913</v>
+      </c>
+      <c r="D44">
+        <v>907</v>
+      </c>
+      <c r="E44">
+        <v>712.4</v>
+      </c>
+      <c r="F44">
+        <v>324.22000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>483132</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>905</v>
+      </c>
+      <c r="D45">
+        <v>905</v>
+      </c>
+      <c r="E45">
+        <v>711.18</v>
+      </c>
+      <c r="F45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>483154</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>902</v>
+      </c>
+      <c r="D46">
+        <v>903</v>
+      </c>
+      <c r="E46">
+        <v>708.74</v>
+      </c>
+      <c r="F46">
+        <v>326.66000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>483176</v>
+      </c>
+      <c r="B47">
+        <v>-34</v>
+      </c>
+      <c r="C47">
+        <v>903</v>
+      </c>
+      <c r="D47">
+        <v>900</v>
+      </c>
+      <c r="E47">
+        <v>708.74</v>
+      </c>
+      <c r="F47">
+        <v>326.66000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>483198</v>
+      </c>
+      <c r="B48">
+        <v>-57</v>
+      </c>
+      <c r="C48">
+        <v>903</v>
+      </c>
+      <c r="D48">
+        <v>898</v>
+      </c>
+      <c r="E48">
+        <v>708.74</v>
+      </c>
+      <c r="F48">
+        <v>329.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>483221</v>
+      </c>
+      <c r="B49">
+        <v>-69</v>
+      </c>
+      <c r="C49">
+        <v>902</v>
+      </c>
+      <c r="D49">
+        <v>896</v>
+      </c>
+      <c r="E49">
+        <v>705.08</v>
+      </c>
+      <c r="F49">
+        <v>329.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>483243</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>894</v>
+      </c>
+      <c r="D50">
+        <v>894</v>
+      </c>
+      <c r="E50">
+        <v>706.3</v>
+      </c>
+      <c r="F50">
+        <v>330.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>483265</v>
+      </c>
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>890</v>
+      </c>
+      <c r="D51">
+        <v>892</v>
+      </c>
+      <c r="E51">
+        <v>701.42</v>
+      </c>
+      <c r="F51">
+        <v>327.88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>483287</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>888</v>
+      </c>
+      <c r="D52">
+        <v>889</v>
+      </c>
+      <c r="E52">
+        <v>703.86</v>
+      </c>
+      <c r="F52">
+        <v>333.98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>483309</v>
+      </c>
+      <c r="B53">
+        <v>-11</v>
+      </c>
+      <c r="C53">
+        <v>888</v>
+      </c>
+      <c r="D53">
+        <v>887</v>
+      </c>
+      <c r="E53">
+        <v>703.86</v>
+      </c>
+      <c r="F53">
+        <v>333.98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>483331</v>
+      </c>
+      <c r="B54">
+        <v>-34</v>
+      </c>
+      <c r="C54">
+        <v>888</v>
+      </c>
+      <c r="D54">
+        <v>885</v>
+      </c>
+      <c r="E54">
+        <v>698.97</v>
+      </c>
+      <c r="F54">
+        <v>335.21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>483353</v>
+      </c>
+      <c r="B55">
+        <v>-46</v>
+      </c>
+      <c r="C55">
+        <v>887</v>
+      </c>
+      <c r="D55">
+        <v>883</v>
+      </c>
+      <c r="E55">
+        <v>698.97</v>
+      </c>
+      <c r="F55">
+        <v>336.43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>483375</v>
+      </c>
+      <c r="B56">
+        <v>-23</v>
+      </c>
+      <c r="C56">
+        <v>883</v>
+      </c>
+      <c r="D56">
+        <v>881</v>
+      </c>
+      <c r="E56">
+        <v>695.31</v>
+      </c>
+      <c r="F56">
+        <v>336.43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>483397</v>
+      </c>
+      <c r="B57">
+        <v>-34</v>
+      </c>
+      <c r="C57">
+        <v>881</v>
+      </c>
+      <c r="D57">
+        <v>878</v>
+      </c>
+      <c r="E57">
+        <v>695.31</v>
+      </c>
+      <c r="F57">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>483419</v>
+      </c>
+      <c r="B58">
+        <v>-57</v>
+      </c>
+      <c r="C58">
+        <v>881</v>
+      </c>
+      <c r="D58">
+        <v>876</v>
+      </c>
+      <c r="E58">
+        <v>692.87</v>
+      </c>
+      <c r="F58">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>483441</v>
+      </c>
+      <c r="B59">
+        <v>-46</v>
+      </c>
+      <c r="C59">
+        <v>878</v>
+      </c>
+      <c r="D59">
+        <v>874</v>
+      </c>
+      <c r="E59">
+        <v>692.87</v>
+      </c>
+      <c r="F59">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>483463</v>
+      </c>
+      <c r="B60">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>870</v>
+      </c>
+      <c r="D60">
+        <v>872</v>
+      </c>
+      <c r="E60">
+        <v>691.65</v>
+      </c>
+      <c r="F60">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>483485</v>
+      </c>
+      <c r="B61">
+        <v>57</v>
+      </c>
+      <c r="C61">
+        <v>865</v>
+      </c>
+      <c r="D61">
+        <v>870</v>
+      </c>
+      <c r="E61">
+        <v>689.21</v>
+      </c>
+      <c r="F61">
+        <v>341.31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>483507</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>866</v>
+      </c>
+      <c r="D62">
+        <v>867</v>
+      </c>
+      <c r="E62">
+        <v>689.21</v>
+      </c>
+      <c r="F62">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>483529</v>
+      </c>
+      <c r="B63">
+        <v>-23</v>
+      </c>
+      <c r="C63">
+        <v>867</v>
+      </c>
+      <c r="D63">
+        <v>865</v>
+      </c>
+      <c r="E63">
+        <v>687.99</v>
+      </c>
+      <c r="F63">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>483551</v>
+      </c>
+      <c r="B64">
+        <v>-11</v>
+      </c>
+      <c r="C64">
+        <v>864</v>
+      </c>
+      <c r="D64">
+        <v>863</v>
+      </c>
+      <c r="E64">
+        <v>685.55</v>
+      </c>
+      <c r="F64">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>483573</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>861</v>
+      </c>
+      <c r="D65">
+        <v>861</v>
+      </c>
+      <c r="E65">
+        <v>685.55</v>
+      </c>
+      <c r="F65">
+        <v>342.53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>483595</v>
+      </c>
+      <c r="B66">
+        <v>-34</v>
+      </c>
+      <c r="C66">
+        <v>861</v>
+      </c>
+      <c r="D66">
+        <v>858</v>
+      </c>
+      <c r="E66">
+        <v>685.55</v>
+      </c>
+      <c r="F66">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>483617</v>
+      </c>
+      <c r="B67">
+        <v>-57</v>
+      </c>
+      <c r="C67">
+        <v>861</v>
+      </c>
+      <c r="D67">
+        <v>856</v>
+      </c>
+      <c r="E67">
+        <v>683.11</v>
+      </c>
+      <c r="F67">
+        <v>341.31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>483639</v>
+      </c>
+      <c r="B68">
+        <v>-69</v>
+      </c>
+      <c r="C68">
+        <v>860</v>
+      </c>
+      <c r="D68">
+        <v>854</v>
+      </c>
+      <c r="E68">
+        <v>683.11</v>
+      </c>
+      <c r="F68">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>483661</v>
+      </c>
+      <c r="B69">
+        <v>-34</v>
+      </c>
+      <c r="C69">
+        <v>855</v>
+      </c>
+      <c r="D69">
+        <v>852</v>
+      </c>
+      <c r="E69">
+        <v>680.66</v>
+      </c>
+      <c r="F69">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>483683</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>849</v>
+      </c>
+      <c r="D70">
+        <v>850</v>
+      </c>
+      <c r="E70">
+        <v>677</v>
+      </c>
+      <c r="F70">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>483705</v>
+      </c>
+      <c r="B71">
+        <v>-255</v>
+      </c>
+      <c r="C71">
+        <v>848</v>
+      </c>
+      <c r="D71">
+        <v>847</v>
+      </c>
+      <c r="E71">
+        <v>678.22</v>
+      </c>
+      <c r="F71">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>483727</v>
+      </c>
+      <c r="B72">
+        <v>34</v>
+      </c>
+      <c r="C72">
+        <v>842</v>
+      </c>
+      <c r="D72">
+        <v>845</v>
+      </c>
+      <c r="E72">
+        <v>678.22</v>
+      </c>
+      <c r="F72">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>483749</v>
+      </c>
+      <c r="B73">
+        <v>34</v>
+      </c>
+      <c r="C73">
+        <v>840</v>
+      </c>
+      <c r="D73">
+        <v>843</v>
+      </c>
+      <c r="E73">
+        <v>677</v>
+      </c>
+      <c r="F73">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>483771</v>
+      </c>
+      <c r="B74">
+        <v>-11</v>
+      </c>
+      <c r="C74">
+        <v>842</v>
+      </c>
+      <c r="D74">
+        <v>841</v>
+      </c>
+      <c r="E74">
+        <v>674.56</v>
+      </c>
+      <c r="F74">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>483793</v>
+      </c>
+      <c r="B75">
+        <v>-34</v>
+      </c>
+      <c r="C75">
+        <v>842</v>
+      </c>
+      <c r="D75">
+        <v>839</v>
+      </c>
+      <c r="E75">
+        <v>674.56</v>
+      </c>
+      <c r="F75">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>483815</v>
+      </c>
+      <c r="B76">
+        <v>-46</v>
+      </c>
+      <c r="C76">
+        <v>841</v>
+      </c>
+      <c r="D76">
+        <v>837</v>
+      </c>
+      <c r="E76">
+        <v>672.12</v>
+      </c>
+      <c r="F76">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>483837</v>
+      </c>
+      <c r="B77">
+        <v>-46</v>
+      </c>
+      <c r="C77">
+        <v>838</v>
+      </c>
+      <c r="D77">
+        <v>834</v>
+      </c>
+      <c r="E77">
+        <v>670.9</v>
+      </c>
+      <c r="F77">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>483859</v>
+      </c>
+      <c r="B78">
+        <v>23</v>
+      </c>
+      <c r="C78">
+        <v>830</v>
+      </c>
+      <c r="D78">
+        <v>832</v>
+      </c>
+      <c r="E78">
+        <v>668.46</v>
+      </c>
+      <c r="F78">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>483881</v>
+      </c>
+      <c r="B79">
+        <v>34</v>
+      </c>
+      <c r="C79">
+        <v>827</v>
+      </c>
+      <c r="D79">
+        <v>830</v>
+      </c>
+      <c r="E79">
+        <v>670.9</v>
+      </c>
+      <c r="F79">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>483904</v>
+      </c>
+      <c r="B80">
+        <v>34</v>
+      </c>
+      <c r="C80">
+        <v>825</v>
+      </c>
+      <c r="D80">
+        <v>828</v>
+      </c>
+      <c r="E80">
+        <v>667.24</v>
+      </c>
+      <c r="F80">
+        <v>347.41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>483926</v>
+      </c>
+      <c r="B81">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <v>824</v>
+      </c>
+      <c r="D81">
+        <v>826</v>
+      </c>
+      <c r="E81">
+        <v>664.79</v>
+      </c>
+      <c r="F81">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>483948</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>823</v>
+      </c>
+      <c r="D82">
+        <v>823</v>
+      </c>
+      <c r="E82">
+        <v>663.57</v>
+      </c>
+      <c r="F82">
+        <v>347.41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>483970</v>
+      </c>
+      <c r="B83">
+        <v>-11</v>
+      </c>
+      <c r="C83">
+        <v>822</v>
+      </c>
+      <c r="D83">
+        <v>821</v>
+      </c>
+      <c r="E83">
+        <v>666.02</v>
+      </c>
+      <c r="F83">
+        <v>347.41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>483992</v>
+      </c>
+      <c r="B84">
+        <v>-23</v>
+      </c>
+      <c r="C84">
+        <v>821</v>
+      </c>
+      <c r="D84">
+        <v>819</v>
+      </c>
+      <c r="E84">
+        <v>662.35</v>
+      </c>
+      <c r="F84">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>484014</v>
+      </c>
+      <c r="B85">
+        <v>-46</v>
+      </c>
+      <c r="C85">
+        <v>821</v>
+      </c>
+      <c r="D85">
+        <v>817</v>
+      </c>
+      <c r="E85">
+        <v>662.35</v>
+      </c>
+      <c r="F85">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>484036</v>
+      </c>
+      <c r="B86">
+        <v>-57</v>
+      </c>
+      <c r="C86">
+        <v>819</v>
+      </c>
+      <c r="D86">
+        <v>814</v>
+      </c>
+      <c r="E86">
+        <v>662.35</v>
+      </c>
+      <c r="F86">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>484058</v>
+      </c>
+      <c r="B87">
+        <v>-46</v>
+      </c>
+      <c r="C87">
+        <v>816</v>
+      </c>
+      <c r="D87">
+        <v>812</v>
+      </c>
+      <c r="E87">
+        <v>657.47</v>
+      </c>
+      <c r="F87">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>484080</v>
+      </c>
+      <c r="B88">
+        <v>-23</v>
+      </c>
+      <c r="C88">
+        <v>812</v>
+      </c>
+      <c r="D88">
+        <v>810</v>
+      </c>
+      <c r="E88">
+        <v>657.47</v>
+      </c>
+      <c r="F88">
+        <v>347.41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>484102</v>
+      </c>
+      <c r="B89">
+        <v>23</v>
+      </c>
+      <c r="C89">
+        <v>806</v>
+      </c>
+      <c r="D89">
+        <v>808</v>
+      </c>
+      <c r="E89">
+        <v>658.69</v>
+      </c>
+      <c r="F89">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>484124</v>
+      </c>
+      <c r="B90">
+        <v>46</v>
+      </c>
+      <c r="C90">
+        <v>802</v>
+      </c>
+      <c r="D90">
+        <v>806</v>
+      </c>
+      <c r="E90">
+        <v>656.25</v>
+      </c>
+      <c r="F90">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>484146</v>
+      </c>
+      <c r="B91">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>801</v>
+      </c>
+      <c r="D91">
+        <v>803</v>
+      </c>
+      <c r="E91">
+        <v>655.03</v>
+      </c>
+      <c r="F91">
+        <v>348.63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>484168</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>801</v>
+      </c>
+      <c r="D92">
+        <v>801</v>
+      </c>
+      <c r="E92">
+        <v>653.80999999999995</v>
+      </c>
+      <c r="F92">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>484190</v>
+      </c>
+      <c r="B93">
+        <v>-11</v>
+      </c>
+      <c r="C93">
+        <v>800</v>
+      </c>
+      <c r="D93">
+        <v>799</v>
+      </c>
+      <c r="E93">
+        <v>652.59</v>
+      </c>
+      <c r="F93">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>484212</v>
+      </c>
+      <c r="B94">
+        <v>-34</v>
+      </c>
+      <c r="C94">
+        <v>800</v>
+      </c>
+      <c r="D94">
+        <v>797</v>
+      </c>
+      <c r="E94">
+        <v>651.37</v>
+      </c>
+      <c r="F94">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>484234</v>
+      </c>
+      <c r="B95">
+        <v>-46</v>
+      </c>
+      <c r="C95">
+        <v>799</v>
+      </c>
+      <c r="D95">
+        <v>795</v>
+      </c>
+      <c r="E95">
+        <v>650.15</v>
+      </c>
+      <c r="F95">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>484256</v>
+      </c>
+      <c r="B96">
+        <v>-46</v>
+      </c>
+      <c r="C96">
+        <v>796</v>
+      </c>
+      <c r="D96">
+        <v>792</v>
+      </c>
+      <c r="E96">
+        <v>648.92999999999995</v>
+      </c>
+      <c r="F96">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>484278</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>790</v>
+      </c>
+      <c r="D97">
+        <v>790</v>
+      </c>
+      <c r="E97">
+        <v>647.71</v>
+      </c>
+      <c r="F97">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>484300</v>
+      </c>
+      <c r="B98">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>787</v>
+      </c>
+      <c r="D98">
+        <v>788</v>
+      </c>
+      <c r="E98">
+        <v>645.26</v>
+      </c>
+      <c r="F98">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>484322</v>
+      </c>
+      <c r="B99">
+        <v>-23</v>
+      </c>
+      <c r="C99">
+        <v>788</v>
+      </c>
+      <c r="D99">
+        <v>786</v>
+      </c>
+      <c r="E99">
+        <v>646.48</v>
+      </c>
+      <c r="F99">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>484344</v>
+      </c>
+      <c r="B100">
+        <v>-46</v>
+      </c>
+      <c r="C100">
+        <v>788</v>
+      </c>
+      <c r="D100">
+        <v>784</v>
+      </c>
+      <c r="E100">
+        <v>642.82000000000005</v>
+      </c>
+      <c r="F100">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>484366</v>
+      </c>
+      <c r="B101">
+        <v>-57</v>
+      </c>
+      <c r="C101">
+        <v>786</v>
+      </c>
+      <c r="D101">
+        <v>781</v>
+      </c>
+      <c r="E101">
+        <v>644.04</v>
+      </c>
+      <c r="F101">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>484388</v>
+      </c>
+      <c r="B102">
+        <v>-46</v>
+      </c>
+      <c r="C102">
+        <v>783</v>
+      </c>
+      <c r="D102">
+        <v>779</v>
+      </c>
+      <c r="E102">
+        <v>641.6</v>
+      </c>
+      <c r="F102">
+        <v>348.63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>484410</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>776</v>
+      </c>
+      <c r="D103">
+        <v>777</v>
+      </c>
+      <c r="E103">
+        <v>641.6</v>
+      </c>
+      <c r="F103">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>484432</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>775</v>
+      </c>
+      <c r="D104">
+        <v>775</v>
+      </c>
+      <c r="E104">
+        <v>639.16</v>
+      </c>
+      <c r="F104">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>484454</v>
+      </c>
+      <c r="B105">
+        <v>-46</v>
+      </c>
+      <c r="C105">
+        <v>777</v>
+      </c>
+      <c r="D105">
+        <v>773</v>
+      </c>
+      <c r="E105">
+        <v>639.16</v>
+      </c>
+      <c r="F105">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>484476</v>
+      </c>
+      <c r="B106">
+        <v>-69</v>
+      </c>
+      <c r="C106">
+        <v>776</v>
+      </c>
+      <c r="D106">
+        <v>770</v>
+      </c>
+      <c r="E106">
+        <v>637.94000000000005</v>
+      </c>
+      <c r="F106">
+        <v>346.19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>484498</v>
+      </c>
+      <c r="B107">
+        <v>-57</v>
+      </c>
+      <c r="C107">
+        <v>773</v>
+      </c>
+      <c r="D107">
+        <v>768</v>
+      </c>
+      <c r="E107">
+        <v>639.16</v>
+      </c>
+      <c r="F107">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>484520</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>766</v>
+      </c>
+      <c r="D108">
+        <v>766</v>
+      </c>
+      <c r="E108">
+        <v>637.94000000000005</v>
+      </c>
+      <c r="F108">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>484542</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>764</v>
+      </c>
+      <c r="D109">
+        <v>764</v>
+      </c>
+      <c r="E109">
+        <v>634.28</v>
+      </c>
+      <c r="F109">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>484564</v>
+      </c>
+      <c r="B110">
+        <v>-46</v>
+      </c>
+      <c r="C110">
+        <v>766</v>
+      </c>
+      <c r="D110">
+        <v>762</v>
+      </c>
+      <c r="E110">
+        <v>636.72</v>
+      </c>
+      <c r="F110">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>484587</v>
+      </c>
+      <c r="B111">
+        <v>-69</v>
+      </c>
+      <c r="C111">
+        <v>765</v>
+      </c>
+      <c r="D111">
+        <v>759</v>
+      </c>
+      <c r="E111">
+        <v>634.28</v>
+      </c>
+      <c r="F111">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>484609</v>
+      </c>
+      <c r="B112">
+        <v>-23</v>
+      </c>
+      <c r="C112">
+        <v>759</v>
+      </c>
+      <c r="D112">
+        <v>757</v>
+      </c>
+      <c r="E112">
+        <v>634.28</v>
+      </c>
+      <c r="F112">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>484631</v>
+      </c>
+      <c r="B113">
+        <v>-23</v>
+      </c>
+      <c r="C113">
+        <v>757</v>
+      </c>
+      <c r="D113">
+        <v>755</v>
+      </c>
+      <c r="E113">
+        <v>630.62</v>
+      </c>
+      <c r="F113">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>484653</v>
+      </c>
+      <c r="B114">
+        <v>-46</v>
+      </c>
+      <c r="C114">
+        <v>757</v>
+      </c>
+      <c r="D114">
+        <v>753</v>
+      </c>
+      <c r="E114">
+        <v>629.39</v>
+      </c>
+      <c r="F114">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>484675</v>
+      </c>
+      <c r="B115">
+        <v>-57</v>
+      </c>
+      <c r="C115">
+        <v>756</v>
+      </c>
+      <c r="D115">
+        <v>751</v>
+      </c>
+      <c r="E115">
+        <v>629.39</v>
+      </c>
+      <c r="F115">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>484697</v>
+      </c>
+      <c r="B116">
+        <v>-57</v>
+      </c>
+      <c r="C116">
+        <v>753</v>
+      </c>
+      <c r="D116">
+        <v>748</v>
+      </c>
+      <c r="E116">
+        <v>626.95000000000005</v>
+      </c>
+      <c r="F116">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>484719</v>
+      </c>
+      <c r="B117">
+        <v>-57</v>
+      </c>
+      <c r="C117">
+        <v>751</v>
+      </c>
+      <c r="D117">
+        <v>746</v>
+      </c>
+      <c r="E117">
+        <v>625.73</v>
+      </c>
+      <c r="F117">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>484741</v>
+      </c>
+      <c r="B118">
+        <v>-57</v>
+      </c>
+      <c r="C118">
+        <v>749</v>
+      </c>
+      <c r="D118">
+        <v>744</v>
+      </c>
+      <c r="E118">
+        <v>625.73</v>
+      </c>
+      <c r="F118">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>484763</v>
+      </c>
+      <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119">
+        <v>741</v>
+      </c>
+      <c r="D119">
+        <v>742</v>
+      </c>
+      <c r="E119">
+        <v>626.95000000000005</v>
+      </c>
+      <c r="F119">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>484785</v>
+      </c>
+      <c r="B120">
+        <v>23</v>
+      </c>
+      <c r="C120">
+        <v>738</v>
+      </c>
+      <c r="D120">
+        <v>740</v>
+      </c>
+      <c r="E120">
+        <v>623.29</v>
+      </c>
+      <c r="F120">
+        <v>344.97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>484807</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>737</v>
+      </c>
+      <c r="D121">
+        <v>737</v>
+      </c>
+      <c r="E121">
+        <v>622.07000000000005</v>
+      </c>
+      <c r="F121">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>484829</v>
+      </c>
+      <c r="B122">
+        <v>-23</v>
+      </c>
+      <c r="C122">
+        <v>737</v>
+      </c>
+      <c r="D122">
+        <v>735</v>
+      </c>
+      <c r="E122">
+        <v>622.07000000000005</v>
+      </c>
+      <c r="F122">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>484851</v>
+      </c>
+      <c r="B123">
+        <v>-46</v>
+      </c>
+      <c r="C123">
+        <v>737</v>
+      </c>
+      <c r="D123">
+        <v>733</v>
+      </c>
+      <c r="E123">
+        <v>620.85</v>
+      </c>
+      <c r="F123">
+        <v>342.53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>484873</v>
+      </c>
+      <c r="B124">
+        <v>-46</v>
+      </c>
+      <c r="C124">
+        <v>735</v>
+      </c>
+      <c r="D124">
+        <v>731</v>
+      </c>
+      <c r="E124">
+        <v>619.63</v>
+      </c>
+      <c r="F124">
+        <v>342.53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>484895</v>
+      </c>
+      <c r="B125">
+        <v>-34</v>
+      </c>
+      <c r="C125">
+        <v>732</v>
+      </c>
+      <c r="D125">
+        <v>729</v>
+      </c>
+      <c r="E125">
+        <v>619.63</v>
+      </c>
+      <c r="F125">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>484917</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>726</v>
+      </c>
+      <c r="D126">
+        <v>726</v>
+      </c>
+      <c r="E126">
+        <v>615.97</v>
+      </c>
+      <c r="F126">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>484939</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>724</v>
+      </c>
+      <c r="D127">
+        <v>724</v>
+      </c>
+      <c r="E127">
+        <v>615.97</v>
+      </c>
+      <c r="F127">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>484961</v>
+      </c>
+      <c r="B128">
+        <v>-34</v>
+      </c>
+      <c r="C128">
+        <v>725</v>
+      </c>
+      <c r="D128">
+        <v>722</v>
+      </c>
+      <c r="E128">
+        <v>618.41</v>
+      </c>
+      <c r="F128">
+        <v>342.53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>484983</v>
+      </c>
+      <c r="B129">
+        <v>-57</v>
+      </c>
+      <c r="C129">
+        <v>725</v>
+      </c>
+      <c r="D129">
+        <v>720</v>
+      </c>
+      <c r="E129">
+        <v>614.75</v>
+      </c>
+      <c r="F129">
+        <v>342.53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>485005</v>
+      </c>
+      <c r="B130">
+        <v>-23</v>
+      </c>
+      <c r="C130">
+        <v>720</v>
+      </c>
+      <c r="D130">
+        <v>718</v>
+      </c>
+      <c r="E130">
+        <v>614.75</v>
+      </c>
+      <c r="F130">
+        <v>342.53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>485027</v>
+      </c>
+      <c r="B131">
+        <v>11</v>
+      </c>
+      <c r="C131">
+        <v>714</v>
+      </c>
+      <c r="D131">
+        <v>715</v>
+      </c>
+      <c r="E131">
+        <v>613.53</v>
+      </c>
+      <c r="F131">
+        <v>343.75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>485049</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>713</v>
+      </c>
+      <c r="D132">
+        <v>713</v>
+      </c>
+      <c r="E132">
+        <v>614.75</v>
+      </c>
+      <c r="F132">
+        <v>341.31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>485071</v>
+      </c>
+      <c r="B133">
+        <v>-34</v>
+      </c>
+      <c r="C133">
+        <v>714</v>
+      </c>
+      <c r="D133">
+        <v>711</v>
+      </c>
+      <c r="E133">
+        <v>611.08000000000004</v>
+      </c>
+      <c r="F133">
+        <v>341.31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>485093</v>
+      </c>
+      <c r="B134">
+        <v>-57</v>
+      </c>
+      <c r="C134">
+        <v>714</v>
+      </c>
+      <c r="D134">
+        <v>709</v>
+      </c>
+      <c r="E134">
+        <v>609.86</v>
+      </c>
+      <c r="F134">
+        <v>341.31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>485115</v>
+      </c>
+      <c r="B135">
+        <v>-34</v>
+      </c>
+      <c r="C135">
+        <v>710</v>
+      </c>
+      <c r="D135">
+        <v>707</v>
+      </c>
+      <c r="E135">
+        <v>608.64</v>
+      </c>
+      <c r="F135">
+        <v>341.31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>485137</v>
+      </c>
+      <c r="B136">
+        <v>-46</v>
+      </c>
+      <c r="C136">
+        <v>708</v>
+      </c>
+      <c r="D136">
+        <v>704</v>
+      </c>
+      <c r="E136">
+        <v>608.64</v>
+      </c>
+      <c r="F136">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>485159</v>
+      </c>
+      <c r="B137">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <v>701</v>
+      </c>
+      <c r="D137">
+        <v>702</v>
+      </c>
+      <c r="E137">
+        <v>606.20000000000005</v>
+      </c>
+      <c r="F137">
+        <v>342.53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>485181</v>
+      </c>
+      <c r="B138">
+        <v>-11</v>
+      </c>
+      <c r="C138">
+        <v>701</v>
+      </c>
+      <c r="D138">
+        <v>700</v>
+      </c>
+      <c r="E138">
+        <v>604.98</v>
+      </c>
+      <c r="F138">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>485203</v>
+      </c>
+      <c r="B139">
+        <v>-46</v>
+      </c>
+      <c r="C139">
+        <v>702</v>
+      </c>
+      <c r="D139">
+        <v>698</v>
+      </c>
+      <c r="E139">
+        <v>604.98</v>
+      </c>
+      <c r="F139">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>485225</v>
+      </c>
+      <c r="B140">
+        <v>-69</v>
+      </c>
+      <c r="C140">
+        <v>702</v>
+      </c>
+      <c r="D140">
+        <v>696</v>
+      </c>
+      <c r="E140">
+        <v>603.76</v>
+      </c>
+      <c r="F140">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>485248</v>
+      </c>
+      <c r="B141">
+        <v>-46</v>
+      </c>
+      <c r="C141">
+        <v>697</v>
+      </c>
+      <c r="D141">
+        <v>693</v>
+      </c>
+      <c r="E141">
+        <v>601.32000000000005</v>
+      </c>
+      <c r="F141">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>485270</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>691</v>
+      </c>
+      <c r="D142">
+        <v>691</v>
+      </c>
+      <c r="E142">
+        <v>602.54</v>
+      </c>
+      <c r="F142">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>485292</v>
+      </c>
+      <c r="B143">
+        <v>-23</v>
+      </c>
+      <c r="C143">
+        <v>691</v>
+      </c>
+      <c r="D143">
+        <v>689</v>
+      </c>
+      <c r="E143">
+        <v>601.32000000000005</v>
+      </c>
+      <c r="F143">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>485314</v>
+      </c>
+      <c r="B144">
+        <v>-46</v>
+      </c>
+      <c r="C144">
+        <v>691</v>
+      </c>
+      <c r="D144">
+        <v>687</v>
+      </c>
+      <c r="E144">
+        <v>601.32000000000005</v>
+      </c>
+      <c r="F144">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>485336</v>
+      </c>
+      <c r="B145">
+        <v>-80</v>
+      </c>
+      <c r="C145">
+        <v>691</v>
+      </c>
+      <c r="D145">
+        <v>684</v>
+      </c>
+      <c r="E145">
+        <v>598.88</v>
+      </c>
+      <c r="F145">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>485358</v>
+      </c>
+      <c r="B146">
+        <v>-34</v>
+      </c>
+      <c r="C146">
+        <v>685</v>
+      </c>
+      <c r="D146">
+        <v>682</v>
+      </c>
+      <c r="E146">
+        <v>598.88</v>
+      </c>
+      <c r="F146">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>485380</v>
+      </c>
+      <c r="B147">
+        <v>23</v>
+      </c>
+      <c r="C147">
+        <v>678</v>
+      </c>
+      <c r="D147">
+        <v>680</v>
+      </c>
+      <c r="E147">
+        <v>597.66</v>
+      </c>
+      <c r="F147">
+        <v>337.65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>485402</v>
+      </c>
+      <c r="B148">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <v>677</v>
+      </c>
+      <c r="D148">
+        <v>678</v>
+      </c>
+      <c r="E148">
+        <v>596.44000000000005</v>
+      </c>
+      <c r="F148">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>485424</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>676</v>
+      </c>
+      <c r="D149">
+        <v>676</v>
+      </c>
+      <c r="E149">
+        <v>595.21</v>
+      </c>
+      <c r="F149">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>485446</v>
+      </c>
+      <c r="B150">
+        <v>-34</v>
+      </c>
+      <c r="C150">
+        <v>676</v>
+      </c>
+      <c r="D150">
+        <v>673</v>
+      </c>
+      <c r="E150">
+        <v>596.44000000000005</v>
+      </c>
+      <c r="F150">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>485468</v>
+      </c>
+      <c r="B151">
+        <v>-46</v>
+      </c>
+      <c r="C151">
+        <v>675</v>
+      </c>
+      <c r="D151">
+        <v>671</v>
+      </c>
+      <c r="E151">
+        <v>592.77</v>
+      </c>
+      <c r="F151">
+        <v>337.65</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>485490</v>
+      </c>
+      <c r="B152">
+        <v>-34</v>
+      </c>
+      <c r="C152">
+        <v>672</v>
+      </c>
+      <c r="D152">
+        <v>669</v>
+      </c>
+      <c r="E152">
+        <v>592.77</v>
+      </c>
+      <c r="F152">
+        <v>336.43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>485512</v>
+      </c>
+      <c r="B153">
+        <v>-23</v>
+      </c>
+      <c r="C153">
+        <v>669</v>
+      </c>
+      <c r="D153">
+        <v>667</v>
+      </c>
+      <c r="E153">
+        <v>591.54999999999995</v>
+      </c>
+      <c r="F153">
+        <v>337.65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>485534</v>
+      </c>
+      <c r="B154">
+        <v>-46</v>
+      </c>
+      <c r="C154">
+        <v>669</v>
+      </c>
+      <c r="D154">
+        <v>665</v>
+      </c>
+      <c r="E154">
+        <v>592.77</v>
+      </c>
+      <c r="F154">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>485556</v>
+      </c>
+      <c r="B155">
+        <v>-57</v>
+      </c>
+      <c r="C155">
+        <v>667</v>
+      </c>
+      <c r="D155">
+        <v>662</v>
+      </c>
+      <c r="E155">
+        <v>590.33000000000004</v>
+      </c>
+      <c r="F155">
+        <v>337.65</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>485578</v>
+      </c>
+      <c r="B156">
+        <v>-23</v>
+      </c>
+      <c r="C156">
+        <v>662</v>
+      </c>
+      <c r="D156">
+        <v>660</v>
+      </c>
+      <c r="E156">
+        <v>591.54999999999995</v>
+      </c>
+      <c r="F156">
+        <v>338.87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>485600</v>
+      </c>
+      <c r="B157">
+        <v>-11</v>
+      </c>
+      <c r="C157">
+        <v>659</v>
+      </c>
+      <c r="D157">
+        <v>658</v>
+      </c>
+      <c r="E157">
+        <v>587.89</v>
+      </c>
+      <c r="F157">
+        <v>337.65</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>485622</v>
+      </c>
+      <c r="B158">
+        <v>-46</v>
+      </c>
+      <c r="C158">
+        <v>660</v>
+      </c>
+      <c r="D158">
+        <v>656</v>
+      </c>
+      <c r="E158">
+        <v>586.66999999999996</v>
+      </c>
+      <c r="F158">
+        <v>333.98</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>485644</v>
+      </c>
+      <c r="B159">
+        <v>-69</v>
+      </c>
+      <c r="C159">
+        <v>660</v>
+      </c>
+      <c r="D159">
+        <v>654</v>
+      </c>
+      <c r="E159">
+        <v>586.66999999999996</v>
+      </c>
+      <c r="F159">
+        <v>337.65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>485666</v>
+      </c>
+      <c r="B160">
+        <v>-23</v>
+      </c>
+      <c r="C160">
+        <v>653</v>
+      </c>
+      <c r="D160">
+        <v>651</v>
+      </c>
+      <c r="E160">
+        <v>585.45000000000005</v>
+      </c>
+      <c r="F160">
+        <v>340.09</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>485688</v>
+      </c>
+      <c r="B161">
+        <v>46</v>
+      </c>
+      <c r="C161">
+        <v>645</v>
+      </c>
+      <c r="D161">
+        <v>649</v>
+      </c>
+      <c r="E161">
+        <v>584.23</v>
+      </c>
+      <c r="F161">
+        <v>335.21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>485710</v>
+      </c>
+      <c r="B162">
+        <v>11</v>
+      </c>
+      <c r="C162">
+        <v>646</v>
+      </c>
+      <c r="D162">
+        <v>647</v>
+      </c>
+      <c r="E162">
+        <v>584.23</v>
+      </c>
+      <c r="F162">
+        <v>335.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>485732</v>
+      </c>
+      <c r="B163">
+        <v>-23</v>
+      </c>
+      <c r="C163">
+        <v>647</v>
+      </c>
+      <c r="D163">
+        <v>645</v>
+      </c>
+      <c r="E163">
+        <v>584.23</v>
+      </c>
+      <c r="F163">
+        <v>336.43</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>485754</v>
+      </c>
+      <c r="B164">
+        <v>-57</v>
+      </c>
+      <c r="C164">
+        <v>648</v>
+      </c>
+      <c r="D164">
+        <v>643</v>
+      </c>
+      <c r="E164">
+        <v>581.79</v>
+      </c>
+      <c r="F164">
+        <v>335.21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>485776</v>
+      </c>
+      <c r="B165">
+        <v>-80</v>
+      </c>
+      <c r="C165">
+        <v>647</v>
+      </c>
+      <c r="D165">
+        <v>640</v>
+      </c>
+      <c r="E165">
+        <v>580.57000000000005</v>
+      </c>
+      <c r="F165">
+        <v>336.43</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>485798</v>
+      </c>
+      <c r="B166">
+        <v>-11</v>
+      </c>
+      <c r="C166">
+        <v>639</v>
+      </c>
+      <c r="D166">
+        <v>638</v>
+      </c>
+      <c r="E166">
+        <v>580.57000000000005</v>
+      </c>
+      <c r="F166">
+        <v>332.76</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>485820</v>
+      </c>
+      <c r="B167">
+        <v>11</v>
+      </c>
+      <c r="C167">
+        <v>635</v>
+      </c>
+      <c r="D167">
+        <v>636</v>
+      </c>
+      <c r="E167">
+        <v>578.13</v>
+      </c>
+      <c r="F167">
+        <v>335.21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>485842</v>
+      </c>
+      <c r="B168">
+        <v>-11</v>
+      </c>
+      <c r="C168">
+        <v>635</v>
+      </c>
+      <c r="D168">
+        <v>634</v>
+      </c>
+      <c r="E168">
+        <v>579.35</v>
+      </c>
+      <c r="F168">
+        <v>333.98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>485864</v>
+      </c>
+      <c r="B169">
+        <v>-34</v>
+      </c>
+      <c r="C169">
+        <v>635</v>
+      </c>
+      <c r="D169">
+        <v>632</v>
+      </c>
+      <c r="E169">
+        <v>578.13</v>
+      </c>
+      <c r="F169">
+        <v>335.21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>485886</v>
+      </c>
+      <c r="B170">
+        <v>-57</v>
+      </c>
+      <c r="C170">
+        <v>634</v>
+      </c>
+      <c r="D170">
+        <v>629</v>
+      </c>
+      <c r="E170">
+        <v>576.9</v>
+      </c>
+      <c r="F170">
+        <v>335.21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>485909</v>
+      </c>
+      <c r="B171">
+        <v>-23</v>
+      </c>
+      <c r="C171">
+        <v>629</v>
+      </c>
+      <c r="D171">
+        <v>627</v>
+      </c>
+      <c r="E171">
+        <v>574.46</v>
+      </c>
+      <c r="F171">
+        <v>335.21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>485931</v>
+      </c>
+      <c r="B172">
+        <v>-34</v>
+      </c>
+      <c r="C172">
+        <v>628</v>
+      </c>
+      <c r="D172">
+        <v>625</v>
+      </c>
+      <c r="E172">
+        <v>575.67999999999995</v>
+      </c>
+      <c r="F172">
+        <v>335.21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>485953</v>
+      </c>
+      <c r="B173">
+        <v>-57</v>
+      </c>
+      <c r="C173">
+        <v>628</v>
+      </c>
+      <c r="D173">
+        <v>623</v>
+      </c>
+      <c r="E173">
+        <v>573.24</v>
+      </c>
+      <c r="F173">
+        <v>332.76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>485975</v>
+      </c>
+      <c r="B174">
+        <v>-57</v>
+      </c>
+      <c r="C174">
+        <v>626</v>
+      </c>
+      <c r="D174">
+        <v>621</v>
+      </c>
+      <c r="E174">
+        <v>574.46</v>
+      </c>
+      <c r="F174">
+        <v>336.43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>485997</v>
+      </c>
+      <c r="B175">
+        <v>-23</v>
+      </c>
+      <c r="C175">
+        <v>620</v>
+      </c>
+      <c r="D175">
+        <v>618</v>
+      </c>
+      <c r="E175">
+        <v>573.24</v>
+      </c>
+      <c r="F175">
+        <v>332.76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>486019</v>
+      </c>
+      <c r="B176">
+        <v>-23</v>
+      </c>
+      <c r="C176">
+        <v>618</v>
+      </c>
+      <c r="D176">
+        <v>616</v>
+      </c>
+      <c r="E176">
+        <v>570.79999999999995</v>
+      </c>
+      <c r="F176">
+        <v>333.98</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>486041</v>
+      </c>
+      <c r="B177">
+        <v>-46</v>
+      </c>
+      <c r="C177">
+        <v>618</v>
+      </c>
+      <c r="D177">
+        <v>614</v>
+      </c>
+      <c r="E177">
+        <v>572.02</v>
+      </c>
+      <c r="F177">
+        <v>333.98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>486063</v>
+      </c>
+      <c r="B178">
+        <v>-69</v>
+      </c>
+      <c r="C178">
+        <v>618</v>
+      </c>
+      <c r="D178">
+        <v>612</v>
+      </c>
+      <c r="E178">
+        <v>570.79999999999995</v>
+      </c>
+      <c r="F178">
+        <v>332.76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>486085</v>
+      </c>
+      <c r="B179">
+        <v>-57</v>
+      </c>
+      <c r="C179">
+        <v>615</v>
+      </c>
+      <c r="D179">
+        <v>610</v>
+      </c>
+      <c r="E179">
+        <v>567.14</v>
+      </c>
+      <c r="F179">
+        <v>332.76</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>486107</v>
+      </c>
+      <c r="B180">
+        <v>-23</v>
+      </c>
+      <c r="C180">
+        <v>609</v>
+      </c>
+      <c r="D180">
+        <v>607</v>
+      </c>
+      <c r="E180">
+        <v>565.91999999999996</v>
+      </c>
+      <c r="F180">
+        <v>333.98</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>486129</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>605</v>
+      </c>
+      <c r="D181">
+        <v>605</v>
+      </c>
+      <c r="E181">
+        <v>567.14</v>
+      </c>
+      <c r="F181">
+        <v>331.54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>486151</v>
+      </c>
+      <c r="B182">
+        <v>-46</v>
+      </c>
+      <c r="C182">
+        <v>607</v>
+      </c>
+      <c r="D182">
+        <v>603</v>
+      </c>
+      <c r="E182">
+        <v>565.91999999999996</v>
+      </c>
+      <c r="F182">
+        <v>331.54</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>486173</v>
+      </c>
+      <c r="B183">
+        <v>-23</v>
+      </c>
+      <c r="C183">
+        <v>603</v>
+      </c>
+      <c r="D183">
+        <v>601</v>
+      </c>
+      <c r="E183">
+        <v>563.48</v>
+      </c>
+      <c r="F183">
+        <v>331.54</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>486195</v>
+      </c>
+      <c r="B184">
+        <v>-46</v>
+      </c>
+      <c r="C184">
+        <v>603</v>
+      </c>
+      <c r="D184">
+        <v>599</v>
+      </c>
+      <c r="E184">
+        <v>564.70000000000005</v>
+      </c>
+      <c r="F184">
+        <v>330.32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>486217</v>
+      </c>
+      <c r="B185">
+        <v>-69</v>
+      </c>
+      <c r="C185">
+        <v>602</v>
+      </c>
+      <c r="D185">
+        <v>596</v>
+      </c>
+      <c r="E185">
+        <v>564.70000000000005</v>
+      </c>
+      <c r="F185">
+        <v>330.32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>486239</v>
+      </c>
+      <c r="B186">
+        <v>-57</v>
+      </c>
+      <c r="C186">
+        <v>599</v>
+      </c>
+      <c r="D186">
+        <v>594</v>
+      </c>
+      <c r="E186">
+        <v>565.91999999999996</v>
+      </c>
+      <c r="F186">
+        <v>331.54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>486261</v>
+      </c>
+      <c r="B187">
+        <v>-46</v>
+      </c>
+      <c r="C187">
+        <v>596</v>
+      </c>
+      <c r="D187">
+        <v>592</v>
+      </c>
+      <c r="E187">
+        <v>562.26</v>
+      </c>
+      <c r="F187">
+        <v>331.54</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>486283</v>
+      </c>
+      <c r="B188">
+        <v>-57</v>
+      </c>
+      <c r="C188">
+        <v>595</v>
+      </c>
+      <c r="D188">
+        <v>590</v>
+      </c>
+      <c r="E188">
+        <v>562.26</v>
+      </c>
+      <c r="F188">
+        <v>330.32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>486305</v>
+      </c>
+      <c r="B189">
+        <v>-57</v>
+      </c>
+      <c r="C189">
+        <v>593</v>
+      </c>
+      <c r="D189">
+        <v>588</v>
+      </c>
+      <c r="E189">
+        <v>559.80999999999995</v>
+      </c>
+      <c r="F189">
+        <v>330.32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>486327</v>
+      </c>
+      <c r="B190">
+        <v>-80</v>
+      </c>
+      <c r="C190">
+        <v>592</v>
+      </c>
+      <c r="D190">
+        <v>585</v>
+      </c>
+      <c r="E190">
+        <v>558.59</v>
+      </c>
+      <c r="F190">
+        <v>331.54</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>486349</v>
+      </c>
+      <c r="B191">
+        <v>-80</v>
+      </c>
+      <c r="C191">
+        <v>590</v>
+      </c>
+      <c r="D191">
+        <v>583</v>
+      </c>
+      <c r="E191">
+        <v>561.04</v>
+      </c>
+      <c r="F191">
+        <v>329.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>486371</v>
+      </c>
+      <c r="B192">
+        <v>-34</v>
+      </c>
+      <c r="C192">
+        <v>584</v>
+      </c>
+      <c r="D192">
+        <v>581</v>
+      </c>
+      <c r="E192">
+        <v>557.37</v>
+      </c>
+      <c r="F192">
+        <v>330.32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>486393</v>
+      </c>
+      <c r="B193">
+        <v>-23</v>
+      </c>
+      <c r="C193">
+        <v>581</v>
+      </c>
+      <c r="D193">
+        <v>579</v>
+      </c>
+      <c r="E193">
+        <v>559.80999999999995</v>
+      </c>
+      <c r="F193">
+        <v>329.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>486415</v>
+      </c>
+      <c r="B194">
+        <v>-57</v>
+      </c>
+      <c r="C194">
+        <v>582</v>
+      </c>
+      <c r="D194">
+        <v>577</v>
+      </c>
+      <c r="E194">
+        <v>558.59</v>
+      </c>
+      <c r="F194">
+        <v>330.32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>486437</v>
+      </c>
+      <c r="B195">
+        <v>-80</v>
+      </c>
+      <c r="C195">
+        <v>581</v>
+      </c>
+      <c r="D195">
+        <v>574</v>
+      </c>
+      <c r="E195">
+        <v>557.37</v>
+      </c>
+      <c r="F195">
+        <v>327.88</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>486459</v>
+      </c>
+      <c r="B196">
+        <v>-57</v>
+      </c>
+      <c r="C196">
+        <v>577</v>
+      </c>
+      <c r="D196">
+        <v>572</v>
+      </c>
+      <c r="E196">
+        <v>557.37</v>
+      </c>
+      <c r="F196">
+        <v>327.88</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>486481</v>
+      </c>
+      <c r="B197">
+        <v>-46</v>
+      </c>
+      <c r="C197">
+        <v>574</v>
+      </c>
+      <c r="D197">
+        <v>570</v>
+      </c>
+      <c r="E197">
+        <v>556.15</v>
+      </c>
+      <c r="F197">
+        <v>325.44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>486503</v>
+      </c>
+      <c r="B198">
+        <v>-57</v>
+      </c>
+      <c r="C198">
+        <v>573</v>
+      </c>
+      <c r="D198">
+        <v>568</v>
+      </c>
+      <c r="E198">
+        <v>556.15</v>
+      </c>
+      <c r="F198">
+        <v>329.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>486525</v>
+      </c>
+      <c r="B199">
+        <v>-57</v>
+      </c>
+      <c r="C199">
+        <v>571</v>
+      </c>
+      <c r="D199">
+        <v>566</v>
+      </c>
+      <c r="E199">
+        <v>553.71</v>
+      </c>
+      <c r="F199">
+        <v>329.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>486547</v>
+      </c>
+      <c r="B200">
+        <v>-80</v>
+      </c>
+      <c r="C200">
+        <v>570</v>
+      </c>
+      <c r="D200">
+        <v>563</v>
+      </c>
+      <c r="E200">
+        <v>553.71</v>
+      </c>
+      <c r="F200">
+        <v>325.44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>486569</v>
+      </c>
+      <c r="B201">
+        <v>-69</v>
+      </c>
+      <c r="C201">
+        <v>567</v>
+      </c>
+      <c r="D201">
+        <v>561</v>
+      </c>
+      <c r="E201">
+        <v>553.71</v>
+      </c>
+      <c r="F201">
+        <v>327.88</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>486592</v>
+      </c>
+      <c r="B202">
+        <v>34</v>
+      </c>
+      <c r="C202">
+        <v>556</v>
+      </c>
+      <c r="D202">
+        <v>559</v>
+      </c>
+      <c r="E202">
+        <v>552.49</v>
+      </c>
+      <c r="F202">
+        <v>325.44</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>486614</v>
+      </c>
+      <c r="B203">
+        <v>34</v>
+      </c>
+      <c r="C203">
+        <v>554</v>
+      </c>
+      <c r="D203">
+        <v>557</v>
+      </c>
+      <c r="E203">
+        <v>552.49</v>
+      </c>
+      <c r="F203">
+        <v>324.22000000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>486636</v>
+      </c>
+      <c r="B204">
+        <v>-23</v>
+      </c>
+      <c r="C204">
+        <v>556</v>
+      </c>
+      <c r="D204">
+        <v>554</v>
+      </c>
+      <c r="E204">
+        <v>552.49</v>
+      </c>
+      <c r="F204">
+        <v>324.22000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>486658</v>
+      </c>
+      <c r="B205">
+        <v>-46</v>
+      </c>
+      <c r="C205">
+        <v>556</v>
+      </c>
+      <c r="D205">
+        <v>552</v>
+      </c>
+      <c r="E205">
+        <v>552.49</v>
+      </c>
+      <c r="F205">
+        <v>324.22000000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>486680</v>
+      </c>
+      <c r="B206">
+        <v>-69</v>
+      </c>
+      <c r="C206">
+        <v>556</v>
+      </c>
+      <c r="D206">
+        <v>550</v>
+      </c>
+      <c r="E206">
+        <v>552.49</v>
+      </c>
+      <c r="F206">
+        <v>324.22000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>486702</v>
+      </c>
+      <c r="B207">
+        <v>-69</v>
+      </c>
+      <c r="C207">
+        <v>554</v>
+      </c>
+      <c r="D207">
+        <v>548</v>
+      </c>
+      <c r="E207">
+        <v>551.27</v>
+      </c>
+      <c r="F207">
+        <v>321.77999999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>486724</v>
+      </c>
+      <c r="B208">
+        <v>-34</v>
+      </c>
+      <c r="C208">
+        <v>549</v>
+      </c>
+      <c r="D208">
+        <v>546</v>
+      </c>
+      <c r="E208">
+        <v>551.27</v>
+      </c>
+      <c r="F208">
+        <v>321.77999999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>486746</v>
+      </c>
+      <c r="B209">
+        <v>-57</v>
+      </c>
+      <c r="C209">
+        <v>548</v>
+      </c>
+      <c r="D209">
+        <v>543</v>
+      </c>
+      <c r="E209">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F209">
+        <v>321.77999999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>486768</v>
+      </c>
+      <c r="B210">
+        <v>-57</v>
+      </c>
+      <c r="C210">
+        <v>546</v>
+      </c>
+      <c r="D210">
+        <v>541</v>
+      </c>
+      <c r="E210">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F210">
+        <v>320.56</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>486790</v>
+      </c>
+      <c r="B211">
+        <v>-11</v>
+      </c>
+      <c r="C211">
+        <v>540</v>
+      </c>
+      <c r="D211">
+        <v>539</v>
+      </c>
+      <c r="E211">
+        <v>547.61</v>
+      </c>
+      <c r="F211">
+        <v>321.77999999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>486812</v>
+      </c>
+      <c r="B212">
+        <v>-34</v>
+      </c>
+      <c r="C212">
+        <v>540</v>
+      </c>
+      <c r="D212">
+        <v>537</v>
+      </c>
+      <c r="E212">
+        <v>547.61</v>
+      </c>
+      <c r="F212">
+        <v>318.12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>486834</v>
+      </c>
+      <c r="B213">
+        <v>-57</v>
+      </c>
+      <c r="C213">
+        <v>540</v>
+      </c>
+      <c r="D213">
+        <v>535</v>
+      </c>
+      <c r="E213">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F213">
+        <v>316.89</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>486856</v>
+      </c>
+      <c r="B214">
+        <v>-80</v>
+      </c>
+      <c r="C214">
+        <v>539</v>
+      </c>
+      <c r="D214">
+        <v>532</v>
+      </c>
+      <c r="E214">
+        <v>546.39</v>
+      </c>
+      <c r="F214">
+        <v>318.12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>486878</v>
+      </c>
+      <c r="B215">
+        <v>-57</v>
+      </c>
+      <c r="C215">
+        <v>535</v>
+      </c>
+      <c r="D215">
+        <v>530</v>
+      </c>
+      <c r="E215">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F215">
+        <v>315.67</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>486900</v>
+      </c>
+      <c r="B216">
+        <v>-11</v>
+      </c>
+      <c r="C216">
+        <v>529</v>
+      </c>
+      <c r="D216">
+        <v>528</v>
+      </c>
+      <c r="E216">
+        <v>547.61</v>
+      </c>
+      <c r="F216">
+        <v>315.67</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>486922</v>
+      </c>
+      <c r="B217">
+        <v>-34</v>
+      </c>
+      <c r="C217">
+        <v>529</v>
+      </c>
+      <c r="D217">
+        <v>526</v>
+      </c>
+      <c r="E217">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F217">
+        <v>316.89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>486944</v>
+      </c>
+      <c r="B218">
+        <v>-57</v>
+      </c>
+      <c r="C218">
+        <v>529</v>
+      </c>
+      <c r="D218">
+        <v>524</v>
+      </c>
+      <c r="E218">
+        <v>547.61</v>
+      </c>
+      <c r="F218">
+        <v>314.45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>486966</v>
+      </c>
+      <c r="B219">
+        <v>-80</v>
+      </c>
+      <c r="C219">
+        <v>528</v>
+      </c>
+      <c r="D219">
+        <v>521</v>
+      </c>
+      <c r="E219">
+        <v>546.39</v>
+      </c>
+      <c r="F219">
+        <v>313.23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>486988</v>
+      </c>
+      <c r="B220">
+        <v>-57</v>
+      </c>
+      <c r="C220">
+        <v>524</v>
+      </c>
+      <c r="D220">
+        <v>519</v>
+      </c>
+      <c r="E220">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F220">
+        <v>313.23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>487010</v>
+      </c>
+      <c r="B221">
+        <v>-46</v>
+      </c>
+      <c r="C221">
+        <v>521</v>
+      </c>
+      <c r="D221">
+        <v>517</v>
+      </c>
+      <c r="E221">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F221">
+        <v>313.23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>487032</v>
+      </c>
+      <c r="B222">
+        <v>-57</v>
+      </c>
+      <c r="C222">
+        <v>520</v>
+      </c>
+      <c r="D222">
+        <v>515</v>
+      </c>
+      <c r="E222">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F222">
+        <v>308.35000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>487054</v>
+      </c>
+      <c r="B223">
+        <v>-46</v>
+      </c>
+      <c r="C223">
+        <v>517</v>
+      </c>
+      <c r="D223">
+        <v>513</v>
+      </c>
+      <c r="E223">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F223">
+        <v>312.01</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>487076</v>
+      </c>
+      <c r="B224">
+        <v>-69</v>
+      </c>
+      <c r="C224">
+        <v>516</v>
+      </c>
+      <c r="D224">
+        <v>510</v>
+      </c>
+      <c r="E224">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F224">
+        <v>312.01</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>487098</v>
+      </c>
+      <c r="B225">
+        <v>-69</v>
+      </c>
+      <c r="C225">
+        <v>514</v>
+      </c>
+      <c r="D225">
+        <v>508</v>
+      </c>
+      <c r="E225">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F225">
+        <v>308.35000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>487120</v>
+      </c>
+      <c r="B226">
+        <v>-23</v>
+      </c>
+      <c r="C226">
+        <v>508</v>
+      </c>
+      <c r="D226">
+        <v>506</v>
+      </c>
+      <c r="E226">
+        <v>542.72</v>
+      </c>
+      <c r="F226">
+        <v>309.57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>487142</v>
+      </c>
+      <c r="B227">
+        <v>-46</v>
+      </c>
+      <c r="C227">
+        <v>508</v>
+      </c>
+      <c r="D227">
+        <v>504</v>
+      </c>
+      <c r="E227">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F227">
+        <v>308.35000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>487164</v>
+      </c>
+      <c r="B228">
+        <v>-57</v>
+      </c>
+      <c r="C228">
+        <v>507</v>
+      </c>
+      <c r="D228">
+        <v>502</v>
+      </c>
+      <c r="E228">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F228">
+        <v>307.13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>487186</v>
+      </c>
+      <c r="B229">
+        <v>-69</v>
+      </c>
+      <c r="C229">
+        <v>505</v>
+      </c>
+      <c r="D229">
+        <v>499</v>
+      </c>
+      <c r="E229">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F229">
+        <v>305.91000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>487208</v>
+      </c>
+      <c r="B230">
+        <v>-92</v>
+      </c>
+      <c r="C230">
+        <v>505</v>
+      </c>
+      <c r="D230">
+        <v>497</v>
+      </c>
+      <c r="E230">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F230">
+        <v>305.91000000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>487230</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>495</v>
+      </c>
+      <c r="D231">
+        <v>495</v>
+      </c>
+      <c r="E231">
+        <v>541.5</v>
+      </c>
+      <c r="F231">
+        <v>303.47000000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>487252</v>
+      </c>
+      <c r="B232">
+        <v>23</v>
+      </c>
+      <c r="C232">
+        <v>491</v>
+      </c>
+      <c r="D232">
+        <v>493</v>
+      </c>
+      <c r="E232">
+        <v>542.72</v>
+      </c>
+      <c r="F232">
+        <v>303.47000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>487275</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>491</v>
+      </c>
+      <c r="D233">
+        <v>491</v>
+      </c>
+      <c r="E233">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F233">
+        <v>303.47000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>487297</v>
+      </c>
+      <c r="B234">
+        <v>-34</v>
+      </c>
+      <c r="C234">
+        <v>491</v>
+      </c>
+      <c r="D234">
+        <v>488</v>
+      </c>
+      <c r="E234">
+        <v>541.5</v>
+      </c>
+      <c r="F234">
+        <v>301.02999999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>487319</v>
+      </c>
+      <c r="B235">
+        <v>-57</v>
+      </c>
+      <c r="C235">
+        <v>491</v>
+      </c>
+      <c r="D235">
+        <v>486</v>
+      </c>
+      <c r="E235">
+        <v>541.5</v>
+      </c>
+      <c r="F235">
+        <v>299.8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>487341</v>
+      </c>
+      <c r="B236">
+        <v>-57</v>
+      </c>
+      <c r="C236">
+        <v>489</v>
+      </c>
+      <c r="D236">
+        <v>484</v>
+      </c>
+      <c r="E236">
+        <v>540.28</v>
+      </c>
+      <c r="F236">
+        <v>301.02999999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>487363</v>
+      </c>
+      <c r="B237">
+        <v>-57</v>
+      </c>
+      <c r="C237">
+        <v>487</v>
+      </c>
+      <c r="D237">
+        <v>482</v>
+      </c>
+      <c r="E237">
+        <v>540.28</v>
+      </c>
+      <c r="F237">
+        <v>296.14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>487385</v>
+      </c>
+      <c r="B238">
+        <v>-46</v>
+      </c>
+      <c r="C238">
+        <v>484</v>
+      </c>
+      <c r="D238">
+        <v>480</v>
+      </c>
+      <c r="E238">
+        <v>542.72</v>
+      </c>
+      <c r="F238">
+        <v>296.14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>487407</v>
+      </c>
+      <c r="B239">
+        <v>-80</v>
+      </c>
+      <c r="C239">
+        <v>484</v>
+      </c>
+      <c r="D239">
+        <v>477</v>
+      </c>
+      <c r="E239">
+        <v>537.84</v>
+      </c>
+      <c r="F239">
+        <v>296.14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>487429</v>
+      </c>
+      <c r="B240">
+        <v>255</v>
+      </c>
+      <c r="C240">
+        <v>481</v>
+      </c>
+      <c r="D240">
+        <v>475</v>
+      </c>
+      <c r="E240">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F240">
+        <v>296.14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>487451</v>
+      </c>
+      <c r="B241">
+        <v>-11</v>
+      </c>
+      <c r="C241">
+        <v>474</v>
+      </c>
+      <c r="D241">
+        <v>473</v>
+      </c>
+      <c r="E241">
+        <v>540.28</v>
+      </c>
+      <c r="F241">
+        <v>296.14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>487473</v>
+      </c>
+      <c r="B242">
+        <v>11</v>
+      </c>
+      <c r="C242">
+        <v>470</v>
+      </c>
+      <c r="D242">
+        <v>471</v>
+      </c>
+      <c r="E242">
+        <v>541.5</v>
+      </c>
+      <c r="F242">
+        <v>293.7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>487495</v>
+      </c>
+      <c r="B243">
+        <v>-23</v>
+      </c>
+      <c r="C243">
+        <v>470</v>
+      </c>
+      <c r="D243">
+        <v>468</v>
+      </c>
+      <c r="E243">
+        <v>541.5</v>
+      </c>
+      <c r="F243">
+        <v>292.48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>487517</v>
+      </c>
+      <c r="B244">
+        <v>-46</v>
+      </c>
+      <c r="C244">
+        <v>470</v>
+      </c>
+      <c r="D244">
+        <v>466</v>
+      </c>
+      <c r="E244">
+        <v>541.5</v>
+      </c>
+      <c r="F244">
+        <v>291.26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>487539</v>
+      </c>
+      <c r="B245">
+        <v>-57</v>
+      </c>
+      <c r="C245">
+        <v>469</v>
+      </c>
+      <c r="D245">
+        <v>464</v>
+      </c>
+      <c r="E245">
+        <v>541.5</v>
+      </c>
+      <c r="F245">
+        <v>291.26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>487561</v>
+      </c>
+      <c r="B246">
+        <v>-57</v>
+      </c>
+      <c r="C246">
+        <v>467</v>
+      </c>
+      <c r="D246">
+        <v>462</v>
+      </c>
+      <c r="E246">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F246">
+        <v>290.04000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>487583</v>
+      </c>
+      <c r="B247">
+        <v>-57</v>
+      </c>
+      <c r="C247">
+        <v>465</v>
+      </c>
+      <c r="D247">
+        <v>460</v>
+      </c>
+      <c r="E247">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F247">
+        <v>288.82</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>487605</v>
+      </c>
+      <c r="B248">
+        <v>-69</v>
+      </c>
+      <c r="C248">
+        <v>464</v>
+      </c>
+      <c r="D248">
+        <v>458</v>
+      </c>
+      <c r="E248">
+        <v>539.05999999999995</v>
+      </c>
+      <c r="F248">
+        <v>287.60000000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>487627</v>
+      </c>
+      <c r="B249">
+        <v>-57</v>
+      </c>
+      <c r="C249">
+        <v>460</v>
+      </c>
+      <c r="D249">
+        <v>455</v>
+      </c>
+      <c r="E249">
+        <v>540.28</v>
+      </c>
+      <c r="F249">
+        <v>286.38</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>487649</v>
+      </c>
+      <c r="B250">
+        <v>-46</v>
+      </c>
+      <c r="C250">
+        <v>457</v>
+      </c>
+      <c r="D250">
+        <v>453</v>
+      </c>
+      <c r="E250">
+        <v>540.28</v>
+      </c>
+      <c r="F250">
+        <v>286.38</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>487671</v>
+      </c>
+      <c r="B251">
+        <v>-69</v>
+      </c>
+      <c r="C251">
+        <v>457</v>
+      </c>
+      <c r="D251">
+        <v>451</v>
+      </c>
+      <c r="E251">
+        <v>540.28</v>
+      </c>
+      <c r="F251">
+        <v>287.60000000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>487693</v>
+      </c>
+      <c r="B252">
+        <v>-69</v>
+      </c>
+      <c r="C252">
+        <v>455</v>
+      </c>
+      <c r="D252">
+        <v>449</v>
+      </c>
+      <c r="E252">
+        <v>542.72</v>
+      </c>
+      <c r="F252">
+        <v>283.94</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>487715</v>
+      </c>
+      <c r="B253">
+        <v>-57</v>
+      </c>
+      <c r="C253">
+        <v>452</v>
+      </c>
+      <c r="D253">
+        <v>447</v>
+      </c>
+      <c r="E253">
+        <v>539.05999999999995</v>
+      </c>
+      <c r="F253">
+        <v>282.70999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>487737</v>
+      </c>
+      <c r="B254">
+        <v>-57</v>
+      </c>
+      <c r="C254">
+        <v>449</v>
+      </c>
+      <c r="D254">
+        <v>444</v>
+      </c>
+      <c r="E254">
+        <v>540.28</v>
+      </c>
+      <c r="F254">
+        <v>282.70999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>487759</v>
+      </c>
+      <c r="B255">
+        <v>-69</v>
+      </c>
+      <c r="C255">
+        <v>448</v>
+      </c>
+      <c r="D255">
+        <v>442</v>
+      </c>
+      <c r="E255">
+        <v>536.62</v>
+      </c>
+      <c r="F255">
+        <v>280.27</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>487781</v>
+      </c>
+      <c r="B256">
+        <v>-57</v>
+      </c>
+      <c r="C256">
+        <v>445</v>
+      </c>
+      <c r="D256">
+        <v>440</v>
+      </c>
+      <c r="E256">
+        <v>540.28</v>
+      </c>
+      <c r="F256">
+        <v>279.05</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>487803</v>
+      </c>
+      <c r="B257">
+        <v>-69</v>
+      </c>
+      <c r="C257">
+        <v>444</v>
+      </c>
+      <c r="D257">
+        <v>438</v>
+      </c>
+      <c r="E257">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F257">
+        <v>280.27</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>487825</v>
+      </c>
+      <c r="B258">
+        <v>-57</v>
+      </c>
+      <c r="C258">
+        <v>441</v>
+      </c>
+      <c r="D258">
+        <v>436</v>
+      </c>
+      <c r="E258">
+        <v>540.28</v>
+      </c>
+      <c r="F258">
+        <v>279.05</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>487847</v>
+      </c>
+      <c r="B259">
+        <v>-92</v>
+      </c>
+      <c r="C259">
+        <v>441</v>
+      </c>
+      <c r="D259">
+        <v>433</v>
+      </c>
+      <c r="E259">
+        <v>540.28</v>
+      </c>
+      <c r="F259">
+        <v>276.61</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>487869</v>
+      </c>
+      <c r="B260">
+        <v>-69</v>
+      </c>
+      <c r="C260">
+        <v>437</v>
+      </c>
+      <c r="D260">
+        <v>431</v>
+      </c>
+      <c r="E260">
+        <v>541.5</v>
+      </c>
+      <c r="F260">
+        <v>276.61</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>487891</v>
+      </c>
+      <c r="B261">
+        <v>-34</v>
+      </c>
+      <c r="C261">
+        <v>432</v>
+      </c>
+      <c r="D261">
+        <v>429</v>
+      </c>
+      <c r="E261">
+        <v>541.5</v>
+      </c>
+      <c r="F261">
+        <v>275.39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>487913</v>
+      </c>
+      <c r="B262">
+        <v>-57</v>
+      </c>
+      <c r="C262">
+        <v>432</v>
+      </c>
+      <c r="D262">
+        <v>427</v>
+      </c>
+      <c r="E262">
+        <v>541.5</v>
+      </c>
+      <c r="F262">
+        <v>275.39</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>487936</v>
+      </c>
+      <c r="B263">
+        <v>-80</v>
+      </c>
+      <c r="C263">
+        <v>432</v>
+      </c>
+      <c r="D263">
+        <v>425</v>
+      </c>
+      <c r="E263">
+        <v>540.28</v>
+      </c>
+      <c r="F263">
+        <v>274.17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>487958</v>
+      </c>
+      <c r="B264">
+        <v>-92</v>
+      </c>
+      <c r="C264">
+        <v>430</v>
+      </c>
+      <c r="D264">
+        <v>422</v>
+      </c>
+      <c r="E264">
+        <v>541.5</v>
+      </c>
+      <c r="F264">
+        <v>272.95</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>487980</v>
+      </c>
+      <c r="B265">
+        <v>-69</v>
+      </c>
+      <c r="C265">
+        <v>426</v>
+      </c>
+      <c r="D265">
+        <v>420</v>
+      </c>
+      <c r="E265">
+        <v>542.72</v>
+      </c>
+      <c r="F265">
+        <v>272.95</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>488002</v>
+      </c>
+      <c r="B266">
+        <v>-57</v>
+      </c>
+      <c r="C266">
+        <v>423</v>
+      </c>
+      <c r="D266">
+        <v>418</v>
+      </c>
+      <c r="E266">
+        <v>541.5</v>
+      </c>
+      <c r="F266">
+        <v>270.51</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>488024</v>
+      </c>
+      <c r="B267">
+        <v>-80</v>
+      </c>
+      <c r="C267">
+        <v>423</v>
+      </c>
+      <c r="D267">
+        <v>416</v>
+      </c>
+      <c r="E267">
+        <v>540.28</v>
+      </c>
+      <c r="F267">
+        <v>269.29000000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>488046</v>
+      </c>
+      <c r="B268">
+        <v>-92</v>
+      </c>
+      <c r="C268">
+        <v>421</v>
+      </c>
+      <c r="D268">
+        <v>413</v>
+      </c>
+      <c r="E268">
+        <v>542.72</v>
+      </c>
+      <c r="F268">
+        <v>269.29000000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>488068</v>
+      </c>
+      <c r="B269">
+        <v>-69</v>
+      </c>
+      <c r="C269">
+        <v>417</v>
+      </c>
+      <c r="D269">
+        <v>411</v>
+      </c>
+      <c r="E269">
+        <v>541.5</v>
+      </c>
+      <c r="F269">
+        <v>266.85000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>488090</v>
+      </c>
+      <c r="B270">
+        <v>-69</v>
+      </c>
+      <c r="C270">
+        <v>415</v>
+      </c>
+      <c r="D270">
+        <v>409</v>
+      </c>
+      <c r="E270">
+        <v>539.05999999999995</v>
+      </c>
+      <c r="F270">
+        <v>266.85000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>488112</v>
+      </c>
+      <c r="B271">
+        <v>-80</v>
+      </c>
+      <c r="C271">
+        <v>414</v>
+      </c>
+      <c r="D271">
+        <v>407</v>
+      </c>
+      <c r="E271">
+        <v>540.28</v>
+      </c>
+      <c r="F271">
+        <v>266.85000000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>488134</v>
+      </c>
+      <c r="B272">
+        <v>-11</v>
+      </c>
+      <c r="C272">
+        <v>406</v>
+      </c>
+      <c r="D272">
+        <v>405</v>
+      </c>
+      <c r="E272">
+        <v>540.28</v>
+      </c>
+      <c r="F272">
+        <v>263.18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>488156</v>
+      </c>
+      <c r="B273">
+        <v>-46</v>
+      </c>
+      <c r="C273">
+        <v>406</v>
+      </c>
+      <c r="D273">
+        <v>402</v>
+      </c>
+      <c r="E273">
+        <v>542.72</v>
+      </c>
+      <c r="F273">
+        <v>265.63</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>488178</v>
+      </c>
+      <c r="B274">
+        <v>-34</v>
+      </c>
+      <c r="C274">
+        <v>403</v>
+      </c>
+      <c r="D274">
+        <v>400</v>
+      </c>
+      <c r="E274">
+        <v>540.28</v>
+      </c>
+      <c r="F274">
+        <v>263.18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>488200</v>
+      </c>
+      <c r="B275">
+        <v>-34</v>
+      </c>
+      <c r="C275">
+        <v>401</v>
+      </c>
+      <c r="D275">
+        <v>398</v>
+      </c>
+      <c r="E275">
+        <v>542.72</v>
+      </c>
+      <c r="F275">
+        <v>264.39999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>488222</v>
+      </c>
+      <c r="B276">
+        <v>-57</v>
+      </c>
+      <c r="C276">
+        <v>401</v>
+      </c>
+      <c r="D276">
+        <v>396</v>
+      </c>
+      <c r="E276">
+        <v>540.28</v>
+      </c>
+      <c r="F276">
+        <v>263.18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>488244</v>
+      </c>
+      <c r="B277">
+        <v>-69</v>
+      </c>
+      <c r="C277">
+        <v>400</v>
+      </c>
+      <c r="D277">
+        <v>394</v>
+      </c>
+      <c r="E277">
+        <v>541.5</v>
+      </c>
+      <c r="F277">
+        <v>264.39999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>488266</v>
+      </c>
+      <c r="B278">
+        <v>-46</v>
+      </c>
+      <c r="C278">
+        <v>395</v>
+      </c>
+      <c r="D278">
+        <v>391</v>
+      </c>
+      <c r="E278">
+        <v>542.72</v>
+      </c>
+      <c r="F278">
+        <v>258.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>488288</v>
+      </c>
+      <c r="B279">
+        <v>-23</v>
+      </c>
+      <c r="C279">
+        <v>391</v>
+      </c>
+      <c r="D279">
+        <v>389</v>
+      </c>
+      <c r="E279">
+        <v>542.72</v>
+      </c>
+      <c r="F279">
+        <v>255.86</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>488310</v>
+      </c>
+      <c r="B280">
+        <v>-46</v>
+      </c>
+      <c r="C280">
+        <v>391</v>
+      </c>
+      <c r="D280">
+        <v>387</v>
+      </c>
+      <c r="E280">
+        <v>541.5</v>
+      </c>
+      <c r="F280">
+        <v>257.08</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>488332</v>
+      </c>
+      <c r="B281">
+        <v>-57</v>
+      </c>
+      <c r="C281">
+        <v>390</v>
+      </c>
+      <c r="D281">
+        <v>385</v>
+      </c>
+      <c r="E281">
+        <v>542.72</v>
+      </c>
+      <c r="F281">
+        <v>257.08</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>488354</v>
+      </c>
+      <c r="B282">
+        <v>-57</v>
+      </c>
+      <c r="C282">
+        <v>388</v>
+      </c>
+      <c r="D282">
+        <v>383</v>
+      </c>
+      <c r="E282">
+        <v>541.5</v>
+      </c>
+      <c r="F282">
+        <v>255.86</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>488376</v>
+      </c>
+      <c r="B283">
+        <v>-80</v>
+      </c>
+      <c r="C283">
+        <v>387</v>
+      </c>
+      <c r="D283">
+        <v>380</v>
+      </c>
+      <c r="E283">
+        <v>542.72</v>
+      </c>
+      <c r="F283">
+        <v>255.86</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>488398</v>
+      </c>
+      <c r="B284">
+        <v>-80</v>
+      </c>
+      <c r="C284">
+        <v>385</v>
+      </c>
+      <c r="D284">
+        <v>378</v>
+      </c>
+      <c r="E284">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F284">
+        <v>253.42</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>488420</v>
+      </c>
+      <c r="B285">
+        <v>-69</v>
+      </c>
+      <c r="C285">
+        <v>382</v>
+      </c>
+      <c r="D285">
+        <v>376</v>
+      </c>
+      <c r="E285">
+        <v>542.72</v>
+      </c>
+      <c r="F285">
+        <v>253.42</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>488442</v>
+      </c>
+      <c r="B286">
+        <v>255</v>
+      </c>
+      <c r="C286">
+        <v>371</v>
+      </c>
+      <c r="D286">
+        <v>374</v>
+      </c>
+      <c r="E286">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F286">
+        <v>253.42</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>488464</v>
+      </c>
+      <c r="B287">
+        <v>11</v>
+      </c>
+      <c r="C287">
+        <v>371</v>
+      </c>
+      <c r="D287">
+        <v>372</v>
+      </c>
+      <c r="E287">
+        <v>542.72</v>
+      </c>
+      <c r="F287">
+        <v>249.76</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>488486</v>
+      </c>
+      <c r="B288">
+        <v>-34</v>
+      </c>
+      <c r="C288">
+        <v>372</v>
+      </c>
+      <c r="D288">
+        <v>369</v>
+      </c>
+      <c r="E288">
+        <v>541.5</v>
+      </c>
+      <c r="F288">
+        <v>250.98</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>488508</v>
+      </c>
+      <c r="B289">
+        <v>-69</v>
+      </c>
+      <c r="C289">
+        <v>373</v>
+      </c>
+      <c r="D289">
+        <v>367</v>
+      </c>
+      <c r="E289">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F289">
+        <v>248.54</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>488530</v>
+      </c>
+      <c r="B290">
+        <v>-57</v>
+      </c>
+      <c r="C290">
+        <v>370</v>
+      </c>
+      <c r="D290">
+        <v>365</v>
+      </c>
+      <c r="E290">
+        <v>546.39</v>
+      </c>
+      <c r="F290">
+        <v>249.76</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <v>488552</v>
+      </c>
+      <c r="B291">
+        <v>-34</v>
+      </c>
+      <c r="C291">
+        <v>366</v>
+      </c>
+      <c r="D291">
+        <v>363</v>
+      </c>
+      <c r="E291">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F291">
+        <v>248.54</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <v>488574</v>
+      </c>
+      <c r="B292">
+        <v>-46</v>
+      </c>
+      <c r="C292">
+        <v>365</v>
+      </c>
+      <c r="D292">
+        <v>361</v>
+      </c>
+      <c r="E292">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F292">
+        <v>246.09</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <v>488597</v>
+      </c>
+      <c r="B293">
+        <v>-80</v>
+      </c>
+      <c r="C293">
+        <v>365</v>
+      </c>
+      <c r="D293">
+        <v>358</v>
+      </c>
+      <c r="E293">
+        <v>542.72</v>
+      </c>
+      <c r="F293">
+        <v>244.87</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <v>488619</v>
+      </c>
+      <c r="B294">
+        <v>-34</v>
+      </c>
+      <c r="C294">
+        <v>359</v>
+      </c>
+      <c r="D294">
+        <v>356</v>
+      </c>
+      <c r="E294">
+        <v>542.72</v>
+      </c>
+      <c r="F294">
+        <v>247.31</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <v>488641</v>
+      </c>
+      <c r="B295">
+        <v>-69</v>
+      </c>
+      <c r="C295">
+        <v>360</v>
+      </c>
+      <c r="D295">
+        <v>354</v>
+      </c>
+      <c r="E295">
+        <v>542.72</v>
+      </c>
+      <c r="F295">
+        <v>246.09</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>488663</v>
+      </c>
+      <c r="B296">
+        <v>-69</v>
+      </c>
+      <c r="C296">
+        <v>358</v>
+      </c>
+      <c r="D296">
+        <v>352</v>
+      </c>
+      <c r="E296">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F296">
+        <v>243.65</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>488685</v>
+      </c>
+      <c r="B297">
+        <v>-46</v>
+      </c>
+      <c r="C297">
+        <v>354</v>
+      </c>
+      <c r="D297">
+        <v>350</v>
+      </c>
+      <c r="E297">
+        <v>542.72</v>
+      </c>
+      <c r="F297">
+        <v>242.43</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>488707</v>
+      </c>
+      <c r="B298">
+        <v>-69</v>
+      </c>
+      <c r="C298">
+        <v>353</v>
+      </c>
+      <c r="D298">
+        <v>347</v>
+      </c>
+      <c r="E298">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F298">
+        <v>241.21</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>488729</v>
+      </c>
+      <c r="B299">
+        <v>-80</v>
+      </c>
+      <c r="C299">
+        <v>352</v>
+      </c>
+      <c r="D299">
+        <v>345</v>
+      </c>
+      <c r="E299">
+        <v>542.72</v>
+      </c>
+      <c r="F299">
+        <v>241.21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>488751</v>
+      </c>
+      <c r="B300">
+        <v>-80</v>
+      </c>
+      <c r="C300">
+        <v>350</v>
+      </c>
+      <c r="D300">
+        <v>343</v>
+      </c>
+      <c r="E300">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F300">
+        <v>239.99</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>488773</v>
+      </c>
+      <c r="B301">
+        <v>-80</v>
+      </c>
+      <c r="C301">
+        <v>348</v>
+      </c>
+      <c r="D301">
+        <v>341</v>
+      </c>
+      <c r="E301">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F301">
+        <v>239.99</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>488795</v>
+      </c>
+      <c r="B302">
+        <v>-80</v>
+      </c>
+      <c r="C302">
+        <v>346</v>
+      </c>
+      <c r="D302">
+        <v>339</v>
+      </c>
+      <c r="E302">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F302">
+        <v>237.55</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>488817</v>
+      </c>
+      <c r="B303">
+        <v>-69</v>
+      </c>
+      <c r="C303">
+        <v>342</v>
+      </c>
+      <c r="D303">
+        <v>336</v>
+      </c>
+      <c r="E303">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F303">
+        <v>238.77</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>488839</v>
+      </c>
+      <c r="B304">
+        <v>-69</v>
+      </c>
+      <c r="C304">
+        <v>340</v>
+      </c>
+      <c r="D304">
+        <v>334</v>
+      </c>
+      <c r="E304">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F304">
+        <v>238.77</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>488861</v>
+      </c>
+      <c r="B305">
+        <v>-92</v>
+      </c>
+      <c r="C305">
+        <v>340</v>
+      </c>
+      <c r="D305">
+        <v>332</v>
+      </c>
+      <c r="E305">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F305">
+        <v>238.77</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>488883</v>
+      </c>
+      <c r="B306">
+        <v>-57</v>
+      </c>
+      <c r="C306">
+        <v>335</v>
+      </c>
+      <c r="D306">
+        <v>330</v>
+      </c>
+      <c r="E306">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F306">
+        <v>236.33</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>488905</v>
+      </c>
+      <c r="B307">
+        <v>-46</v>
+      </c>
+      <c r="C307">
+        <v>332</v>
+      </c>
+      <c r="D307">
+        <v>328</v>
+      </c>
+      <c r="E307">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F307">
+        <v>235.11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>488927</v>
+      </c>
+      <c r="B308">
+        <v>-57</v>
+      </c>
+      <c r="C308">
+        <v>330</v>
+      </c>
+      <c r="D308">
+        <v>325</v>
+      </c>
+      <c r="E308">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F308">
+        <v>233.89</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>488949</v>
+      </c>
+      <c r="B309">
+        <v>-69</v>
+      </c>
+      <c r="C309">
+        <v>329</v>
+      </c>
+      <c r="D309">
+        <v>323</v>
+      </c>
+      <c r="E309">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F309">
+        <v>232.67</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>488971</v>
+      </c>
+      <c r="B310">
+        <v>-69</v>
+      </c>
+      <c r="C310">
+        <v>327</v>
+      </c>
+      <c r="D310">
+        <v>321</v>
+      </c>
+      <c r="E310">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F310">
+        <v>232.67</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>488993</v>
+      </c>
+      <c r="B311">
+        <v>-23</v>
+      </c>
+      <c r="C311">
+        <v>321</v>
+      </c>
+      <c r="D311">
+        <v>319</v>
+      </c>
+      <c r="E311">
+        <v>547.61</v>
+      </c>
+      <c r="F311">
+        <v>235.11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>489015</v>
+      </c>
+      <c r="B312">
+        <v>-11</v>
+      </c>
+      <c r="C312">
+        <v>317</v>
+      </c>
+      <c r="D312">
+        <v>316</v>
+      </c>
+      <c r="E312">
+        <v>546.39</v>
+      </c>
+      <c r="F312">
+        <v>232.67</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>489037</v>
+      </c>
+      <c r="B313">
+        <v>-46</v>
+      </c>
+      <c r="C313">
+        <v>318</v>
+      </c>
+      <c r="D313">
+        <v>314</v>
+      </c>
+      <c r="E313">
+        <v>543.95000000000005</v>
+      </c>
+      <c r="F313">
+        <v>230.22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>489059</v>
+      </c>
+      <c r="B314">
+        <v>-69</v>
+      </c>
+      <c r="C314">
+        <v>318</v>
+      </c>
+      <c r="D314">
+        <v>312</v>
+      </c>
+      <c r="E314">
+        <v>546.39</v>
+      </c>
+      <c r="F314">
+        <v>230.22</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>489081</v>
+      </c>
+      <c r="B315">
+        <v>-57</v>
+      </c>
+      <c r="C315">
+        <v>315</v>
+      </c>
+      <c r="D315">
+        <v>310</v>
+      </c>
+      <c r="E315">
+        <v>547.61</v>
+      </c>
+      <c r="F315">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>489103</v>
+      </c>
+      <c r="B316">
+        <v>-69</v>
+      </c>
+      <c r="C316">
+        <v>314</v>
+      </c>
+      <c r="D316">
+        <v>308</v>
+      </c>
+      <c r="E316">
+        <v>546.39</v>
+      </c>
+      <c r="F316">
+        <v>227.78</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>489125</v>
+      </c>
+      <c r="B317">
+        <v>-69</v>
+      </c>
+      <c r="C317">
+        <v>312</v>
+      </c>
+      <c r="D317">
+        <v>306</v>
+      </c>
+      <c r="E317">
+        <v>546.39</v>
+      </c>
+      <c r="F317">
+        <v>226.56</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>489147</v>
+      </c>
+      <c r="B318">
+        <v>-46</v>
+      </c>
+      <c r="C318">
+        <v>307</v>
+      </c>
+      <c r="D318">
+        <v>303</v>
+      </c>
+      <c r="E318">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F318">
+        <v>227.78</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>489169</v>
+      </c>
+      <c r="B319">
+        <v>-57</v>
+      </c>
+      <c r="C319">
+        <v>306</v>
+      </c>
+      <c r="D319">
+        <v>301</v>
+      </c>
+      <c r="E319">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F319">
+        <v>227.78</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>489191</v>
+      </c>
+      <c r="B320">
+        <v>-80</v>
+      </c>
+      <c r="C320">
+        <v>306</v>
+      </c>
+      <c r="D320">
+        <v>299</v>
+      </c>
+      <c r="E320">
+        <v>547.61</v>
+      </c>
+      <c r="F320">
+        <v>227.78</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>489213</v>
+      </c>
+      <c r="B321">
+        <v>-80</v>
+      </c>
+      <c r="C321">
+        <v>304</v>
+      </c>
+      <c r="D321">
+        <v>297</v>
+      </c>
+      <c r="E321">
+        <v>547.61</v>
+      </c>
+      <c r="F321">
+        <v>225.34</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>489235</v>
+      </c>
+      <c r="B322">
+        <v>-69</v>
+      </c>
+      <c r="C322">
+        <v>301</v>
+      </c>
+      <c r="D322">
+        <v>295</v>
+      </c>
+      <c r="E322">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F322">
+        <v>225.34</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>489257</v>
+      </c>
+      <c r="B323">
+        <v>-80</v>
+      </c>
+      <c r="C323">
+        <v>299</v>
+      </c>
+      <c r="D323">
+        <v>292</v>
+      </c>
+      <c r="E323">
+        <v>547.61</v>
+      </c>
+      <c r="F323">
+        <v>222.9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>489280</v>
+      </c>
+      <c r="B324">
+        <v>-80</v>
+      </c>
+      <c r="C324">
+        <v>297</v>
+      </c>
+      <c r="D324">
+        <v>290</v>
+      </c>
+      <c r="E324">
+        <v>547.61</v>
+      </c>
+      <c r="F324">
+        <v>225.34</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>489302</v>
+      </c>
+      <c r="B325">
+        <v>-80</v>
+      </c>
+      <c r="C325">
+        <v>295</v>
+      </c>
+      <c r="D325">
+        <v>288</v>
+      </c>
+      <c r="E325">
+        <v>546.39</v>
+      </c>
+      <c r="F325">
+        <v>222.9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>489324</v>
+      </c>
+      <c r="B326">
+        <v>-80</v>
+      </c>
+      <c r="C326">
+        <v>293</v>
+      </c>
+      <c r="D326">
+        <v>286</v>
+      </c>
+      <c r="E326">
+        <v>546.39</v>
+      </c>
+      <c r="F326">
+        <v>225.34</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>489346</v>
+      </c>
+      <c r="B327">
+        <v>-92</v>
+      </c>
+      <c r="C327">
+        <v>291</v>
+      </c>
+      <c r="D327">
+        <v>283</v>
+      </c>
+      <c r="E327">
+        <v>547.61</v>
+      </c>
+      <c r="F327">
+        <v>222.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>489368</v>
+      </c>
+      <c r="B328">
+        <v>-69</v>
+      </c>
+      <c r="C328">
+        <v>287</v>
+      </c>
+      <c r="D328">
+        <v>281</v>
+      </c>
+      <c r="E328">
+        <v>546.39</v>
+      </c>
+      <c r="F328">
+        <v>220.46</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>489390</v>
+      </c>
+      <c r="B329">
+        <v>-92</v>
+      </c>
+      <c r="C329">
+        <v>287</v>
+      </c>
+      <c r="D329">
+        <v>279</v>
+      </c>
+      <c r="E329">
+        <v>547.61</v>
+      </c>
+      <c r="F329">
+        <v>220.46</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>489412</v>
+      </c>
+      <c r="B330">
+        <v>-57</v>
+      </c>
+      <c r="C330">
+        <v>282</v>
+      </c>
+      <c r="D330">
+        <v>277</v>
+      </c>
+      <c r="E330">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F330">
+        <v>219.24</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>489434</v>
+      </c>
+      <c r="B331">
+        <v>-23</v>
+      </c>
+      <c r="C331">
+        <v>277</v>
+      </c>
+      <c r="D331">
+        <v>275</v>
+      </c>
+      <c r="E331">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F331">
+        <v>220.46</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>489456</v>
+      </c>
+      <c r="B332">
+        <v>-57</v>
+      </c>
+      <c r="C332">
+        <v>277</v>
+      </c>
+      <c r="D332">
+        <v>272</v>
+      </c>
+      <c r="E332">
+        <v>545.16999999999996</v>
+      </c>
+      <c r="F332">
+        <v>219.24</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>489478</v>
+      </c>
+      <c r="B333">
+        <v>-80</v>
+      </c>
+      <c r="C333">
+        <v>277</v>
+      </c>
+      <c r="D333">
+        <v>270</v>
+      </c>
+      <c r="E333">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F333">
+        <v>218.02</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>489500</v>
+      </c>
+      <c r="B334">
+        <v>-69</v>
+      </c>
+      <c r="C334">
+        <v>274</v>
+      </c>
+      <c r="D334">
+        <v>268</v>
+      </c>
+      <c r="E334">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F334">
+        <v>218.02</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>489522</v>
+      </c>
+      <c r="B335">
+        <v>-80</v>
+      </c>
+      <c r="C335">
+        <v>273</v>
+      </c>
+      <c r="D335">
+        <v>266</v>
+      </c>
+      <c r="E335">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F335">
+        <v>218.02</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>489544</v>
+      </c>
+      <c r="B336">
+        <v>-80</v>
+      </c>
+      <c r="C336">
+        <v>271</v>
+      </c>
+      <c r="D336">
+        <v>264</v>
+      </c>
+      <c r="E336">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F336">
+        <v>216.8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>489566</v>
+      </c>
+      <c r="B337">
+        <v>-80</v>
+      </c>
+      <c r="C337">
+        <v>268</v>
+      </c>
+      <c r="D337">
+        <v>261</v>
+      </c>
+      <c r="E337">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F337">
+        <v>216.8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>489588</v>
+      </c>
+      <c r="B338">
+        <v>-69</v>
+      </c>
+      <c r="C338">
+        <v>265</v>
+      </c>
+      <c r="D338">
+        <v>259</v>
+      </c>
+      <c r="E338">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F338">
+        <v>214.36</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>489610</v>
+      </c>
+      <c r="B339">
+        <v>-80</v>
+      </c>
+      <c r="C339">
+        <v>264</v>
+      </c>
+      <c r="D339">
+        <v>257</v>
+      </c>
+      <c r="E339">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F339">
+        <v>215.58</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <v>489632</v>
+      </c>
+      <c r="B340">
+        <v>-57</v>
+      </c>
+      <c r="C340">
+        <v>260</v>
+      </c>
+      <c r="D340">
+        <v>255</v>
+      </c>
+      <c r="E340">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F340">
+        <v>213.13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <v>489654</v>
+      </c>
+      <c r="B341">
+        <v>-34</v>
+      </c>
+      <c r="C341">
+        <v>256</v>
+      </c>
+      <c r="D341">
+        <v>253</v>
+      </c>
+      <c r="E341">
+        <v>547.61</v>
+      </c>
+      <c r="F341">
+        <v>214.36</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <v>489676</v>
+      </c>
+      <c r="B342">
+        <v>-69</v>
+      </c>
+      <c r="C342">
+        <v>256</v>
+      </c>
+      <c r="D342">
+        <v>250</v>
+      </c>
+      <c r="E342">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F342">
+        <v>214.36</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <v>489698</v>
+      </c>
+      <c r="B343">
+        <v>-80</v>
+      </c>
+      <c r="C343">
+        <v>255</v>
+      </c>
+      <c r="D343">
+        <v>248</v>
+      </c>
+      <c r="E343">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F343">
+        <v>213.13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <v>489720</v>
+      </c>
+      <c r="B344">
+        <v>-69</v>
+      </c>
+      <c r="C344">
+        <v>252</v>
+      </c>
+      <c r="D344">
+        <v>246</v>
+      </c>
+      <c r="E344">
+        <v>547.61</v>
+      </c>
+      <c r="F344">
+        <v>210.69</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <v>489742</v>
+      </c>
+      <c r="B345">
+        <v>-69</v>
+      </c>
+      <c r="C345">
+        <v>250</v>
+      </c>
+      <c r="D345">
+        <v>244</v>
+      </c>
+      <c r="E345">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F345">
+        <v>214.36</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <v>489764</v>
+      </c>
+      <c r="B346">
+        <v>-57</v>
+      </c>
+      <c r="C346">
+        <v>247</v>
+      </c>
+      <c r="D346">
+        <v>242</v>
+      </c>
+      <c r="E346">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F346">
+        <v>213.13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <v>489786</v>
+      </c>
+      <c r="B347">
+        <v>-69</v>
+      </c>
+      <c r="C347">
+        <v>245</v>
+      </c>
+      <c r="D347">
+        <v>239</v>
+      </c>
+      <c r="E347">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F347">
+        <v>209.47</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <v>489808</v>
+      </c>
+      <c r="B348">
+        <v>255</v>
+      </c>
+      <c r="C348">
+        <v>243</v>
+      </c>
+      <c r="D348">
+        <v>237</v>
+      </c>
+      <c r="E348">
+        <v>547.61</v>
+      </c>
+      <c r="F348">
+        <v>208.25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <v>489830</v>
+      </c>
+      <c r="B349">
+        <v>-92</v>
+      </c>
+      <c r="C349">
+        <v>243</v>
+      </c>
+      <c r="D349">
+        <v>235</v>
+      </c>
+      <c r="E349">
+        <v>546.39</v>
+      </c>
+      <c r="F349">
+        <v>208.25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <v>489852</v>
+      </c>
+      <c r="B350">
+        <v>-57</v>
+      </c>
+      <c r="C350">
+        <v>238</v>
+      </c>
+      <c r="D350">
+        <v>233</v>
+      </c>
+      <c r="E350">
+        <v>547.61</v>
+      </c>
+      <c r="F350">
+        <v>209.47</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <v>489874</v>
+      </c>
+      <c r="B351">
+        <v>-69</v>
+      </c>
+      <c r="C351">
+        <v>237</v>
+      </c>
+      <c r="D351">
+        <v>231</v>
+      </c>
+      <c r="E351">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F351">
+        <v>208.25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <v>489896</v>
+      </c>
+      <c r="B352">
+        <v>-92</v>
+      </c>
+      <c r="C352">
+        <v>236</v>
+      </c>
+      <c r="D352">
+        <v>228</v>
+      </c>
+      <c r="E352">
+        <v>551.27</v>
+      </c>
+      <c r="F352">
+        <v>207.03</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <v>489918</v>
+      </c>
+      <c r="B353">
+        <v>-80</v>
+      </c>
+      <c r="C353">
+        <v>233</v>
+      </c>
+      <c r="D353">
+        <v>226</v>
+      </c>
+      <c r="E353">
+        <v>552.49</v>
+      </c>
+      <c r="F353">
+        <v>208.25</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <v>489940</v>
+      </c>
+      <c r="B354">
+        <v>-69</v>
+      </c>
+      <c r="C354">
+        <v>230</v>
+      </c>
+      <c r="D354">
+        <v>224</v>
+      </c>
+      <c r="E354">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F354">
+        <v>207.03</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>489963</v>
+      </c>
+      <c r="B355">
+        <v>-80</v>
+      </c>
+      <c r="C355">
+        <v>229</v>
+      </c>
+      <c r="D355">
+        <v>222</v>
+      </c>
+      <c r="E355">
+        <v>551.27</v>
+      </c>
+      <c r="F355">
+        <v>207.03</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>489985</v>
+      </c>
+      <c r="B356">
+        <v>-57</v>
+      </c>
+      <c r="C356">
+        <v>225</v>
+      </c>
+      <c r="D356">
+        <v>220</v>
+      </c>
+      <c r="E356">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F356">
+        <v>204.59</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>490007</v>
+      </c>
+      <c r="B357">
+        <v>-69</v>
+      </c>
+      <c r="C357">
+        <v>223</v>
+      </c>
+      <c r="D357">
+        <v>217</v>
+      </c>
+      <c r="E357">
+        <v>551.27</v>
+      </c>
+      <c r="F357">
+        <v>204.59</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>490029</v>
+      </c>
+      <c r="B358">
+        <v>-69</v>
+      </c>
+      <c r="C358">
+        <v>221</v>
+      </c>
+      <c r="D358">
+        <v>215</v>
+      </c>
+      <c r="E358">
+        <v>551.27</v>
+      </c>
+      <c r="F358">
+        <v>205.81</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>490051</v>
+      </c>
+      <c r="B359">
+        <v>-69</v>
+      </c>
+      <c r="C359">
+        <v>219</v>
+      </c>
+      <c r="D359">
+        <v>213</v>
+      </c>
+      <c r="E359">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F359">
+        <v>203.37</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>490073</v>
+      </c>
+      <c r="B360">
+        <v>-69</v>
+      </c>
+      <c r="C360">
+        <v>217</v>
+      </c>
+      <c r="D360">
+        <v>211</v>
+      </c>
+      <c r="E360">
+        <v>551.27</v>
+      </c>
+      <c r="F360">
+        <v>204.59</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>490095</v>
+      </c>
+      <c r="B361">
+        <v>-69</v>
+      </c>
+      <c r="C361">
+        <v>214</v>
+      </c>
+      <c r="D361">
+        <v>208</v>
+      </c>
+      <c r="E361">
+        <v>552.49</v>
+      </c>
+      <c r="F361">
+        <v>203.37</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <v>490117</v>
+      </c>
+      <c r="B362">
+        <v>-92</v>
+      </c>
+      <c r="C362">
+        <v>214</v>
+      </c>
+      <c r="D362">
+        <v>206</v>
+      </c>
+      <c r="E362">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F362">
+        <v>203.37</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <v>490139</v>
+      </c>
+      <c r="B363">
+        <v>-92</v>
+      </c>
+      <c r="C363">
+        <v>212</v>
+      </c>
+      <c r="D363">
+        <v>204</v>
+      </c>
+      <c r="E363">
+        <v>548.83000000000004</v>
+      </c>
+      <c r="F363">
+        <v>202.15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <v>490161</v>
+      </c>
+      <c r="B364">
+        <v>-57</v>
+      </c>
+      <c r="C364">
+        <v>207</v>
+      </c>
+      <c r="D364">
+        <v>202</v>
+      </c>
+      <c r="E364">
+        <v>551.27</v>
+      </c>
+      <c r="F364">
+        <v>202.15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <v>490183</v>
+      </c>
+      <c r="B365">
+        <v>-46</v>
+      </c>
+      <c r="C365">
+        <v>204</v>
+      </c>
+      <c r="D365">
+        <v>200</v>
+      </c>
+      <c r="E365">
+        <v>551.27</v>
+      </c>
+      <c r="F365">
+        <v>202.15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <v>490205</v>
+      </c>
+      <c r="B366">
+        <v>-69</v>
+      </c>
+      <c r="C366">
+        <v>204</v>
+      </c>
+      <c r="D366">
+        <v>198</v>
+      </c>
+      <c r="E366">
+        <v>551.27</v>
+      </c>
+      <c r="F366">
+        <v>202.15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <v>490227</v>
+      </c>
+      <c r="B367">
+        <v>-80</v>
+      </c>
+      <c r="C367">
+        <v>202</v>
+      </c>
+      <c r="D367">
+        <v>195</v>
+      </c>
+      <c r="E367">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F367">
+        <v>200.93</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <v>490249</v>
+      </c>
+      <c r="B368">
+        <v>-69</v>
+      </c>
+      <c r="C368">
+        <v>199</v>
+      </c>
+      <c r="D368">
+        <v>193</v>
+      </c>
+      <c r="E368">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F368">
+        <v>199.71</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <v>490271</v>
+      </c>
+      <c r="B369">
+        <v>-69</v>
+      </c>
+      <c r="C369">
+        <v>197</v>
+      </c>
+      <c r="D369">
+        <v>191</v>
+      </c>
+      <c r="E369">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F369">
+        <v>199.71</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <v>490293</v>
+      </c>
+      <c r="B370">
+        <v>-80</v>
+      </c>
+      <c r="C370">
+        <v>196</v>
+      </c>
+      <c r="D370">
+        <v>189</v>
+      </c>
+      <c r="E370">
+        <v>552.49</v>
+      </c>
+      <c r="F370">
+        <v>198.49</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <v>490315</v>
+      </c>
+      <c r="B371">
+        <v>11</v>
+      </c>
+      <c r="C371">
+        <v>185</v>
+      </c>
+      <c r="D371">
+        <v>186</v>
+      </c>
+      <c r="E371">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F371">
+        <v>198.49</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <v>490337</v>
+      </c>
+      <c r="B372">
+        <v>11</v>
+      </c>
+      <c r="C372">
+        <v>183</v>
+      </c>
+      <c r="D372">
+        <v>184</v>
+      </c>
+      <c r="E372">
+        <v>552.49</v>
+      </c>
+      <c r="F372">
+        <v>198.49</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <v>490359</v>
+      </c>
+      <c r="B373">
+        <v>-23</v>
+      </c>
+      <c r="C373">
+        <v>184</v>
+      </c>
+      <c r="D373">
+        <v>182</v>
+      </c>
+      <c r="E373">
+        <v>551.27</v>
+      </c>
+      <c r="F373">
+        <v>198.49</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <v>490381</v>
+      </c>
+      <c r="B374">
+        <v>-46</v>
+      </c>
+      <c r="C374">
+        <v>184</v>
+      </c>
+      <c r="D374">
+        <v>180</v>
+      </c>
+      <c r="E374">
+        <v>551.27</v>
+      </c>
+      <c r="F374">
+        <v>196.04</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <v>490403</v>
+      </c>
+      <c r="B375">
+        <v>-69</v>
+      </c>
+      <c r="C375">
+        <v>184</v>
+      </c>
+      <c r="D375">
+        <v>178</v>
+      </c>
+      <c r="E375">
+        <v>552.49</v>
+      </c>
+      <c r="F375">
+        <v>198.49</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <v>490425</v>
+      </c>
+      <c r="B376">
+        <v>-69</v>
+      </c>
+      <c r="C376">
+        <v>182</v>
+      </c>
+      <c r="D376">
+        <v>176</v>
+      </c>
+      <c r="E376">
+        <v>552.49</v>
+      </c>
+      <c r="F376">
+        <v>197.27</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <v>490447</v>
+      </c>
+      <c r="B377">
+        <v>-92</v>
+      </c>
+      <c r="C377">
+        <v>181</v>
+      </c>
+      <c r="D377">
+        <v>173</v>
+      </c>
+      <c r="E377">
+        <v>550.04999999999995</v>
+      </c>
+      <c r="F377">
+        <v>197.27</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <v>490469</v>
+      </c>
+      <c r="B378">
+        <v>-92</v>
+      </c>
+      <c r="C378">
+        <v>179</v>
+      </c>
+      <c r="D378">
+        <v>171</v>
+      </c>
+      <c r="E378">
+        <v>552.49</v>
+      </c>
+      <c r="F378">
+        <v>196.04</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <v>490491</v>
+      </c>
+      <c r="B379">
+        <v>-92</v>
+      </c>
+      <c r="C379">
+        <v>177</v>
+      </c>
+      <c r="D379">
+        <v>169</v>
+      </c>
+      <c r="E379">
+        <v>552.49</v>
+      </c>
+      <c r="F379">
+        <v>194.82</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A380">
+        <v>490513</v>
+      </c>
+      <c r="B380">
+        <v>-80</v>
+      </c>
+      <c r="C380">
+        <v>174</v>
+      </c>
+      <c r="D380">
+        <v>167</v>
+      </c>
+      <c r="E380">
+        <v>551.27</v>
+      </c>
+      <c r="F380">
+        <v>196.04</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A381">
+        <v>490535</v>
+      </c>
+      <c r="B381">
+        <v>-80</v>
+      </c>
+      <c r="C381">
+        <v>172</v>
+      </c>
+      <c r="D381">
+        <v>165</v>
+      </c>
+      <c r="E381">
+        <v>552.49</v>
+      </c>
+      <c r="F381">
+        <v>192.38</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A382">
+        <v>490557</v>
+      </c>
+      <c r="B382">
+        <v>255</v>
+      </c>
+      <c r="C382">
+        <v>169</v>
+      </c>
+      <c r="D382">
+        <v>162</v>
+      </c>
+      <c r="E382">
+        <v>553.71</v>
+      </c>
+      <c r="F382">
+        <v>194.82</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A383">
+        <v>490579</v>
+      </c>
+      <c r="B383">
+        <v>255</v>
+      </c>
+      <c r="C383">
+        <v>165</v>
+      </c>
+      <c r="D383">
+        <v>160</v>
+      </c>
+      <c r="E383">
+        <v>552.49</v>
+      </c>
+      <c r="F383">
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A384">
+        <v>490601</v>
+      </c>
+      <c r="B384">
+        <v>-80</v>
+      </c>
+      <c r="C384">
+        <v>165</v>
+      </c>
+      <c r="D384">
+        <v>158</v>
+      </c>
+      <c r="E384">
+        <v>552.49</v>
+      </c>
+      <c r="F384">
+        <v>192.38</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A385">
+        <v>490624</v>
+      </c>
+      <c r="B385">
+        <v>-46</v>
+      </c>
+      <c r="C385">
+        <v>160</v>
+      </c>
+      <c r="D385">
+        <v>156</v>
+      </c>
+      <c r="E385">
+        <v>551.27</v>
+      </c>
+      <c r="F385">
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A386">
+        <v>490646</v>
+      </c>
+      <c r="B386">
+        <v>-46</v>
+      </c>
+      <c r="C386">
+        <v>157</v>
+      </c>
+      <c r="D386">
+        <v>153</v>
+      </c>
+      <c r="E386">
+        <v>551.27</v>
+      </c>
+      <c r="F386">
+        <v>191.16</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A387">
+        <v>490668</v>
+      </c>
+      <c r="B387">
+        <v>-80</v>
+      </c>
+      <c r="C387">
+        <v>158</v>
+      </c>
+      <c r="D387">
+        <v>151</v>
+      </c>
+      <c r="E387">
+        <v>552.49</v>
+      </c>
+      <c r="F387">
+        <v>192.38</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A388">
+        <v>490690</v>
+      </c>
+      <c r="B388">
+        <v>-69</v>
+      </c>
+      <c r="C388">
+        <v>155</v>
+      </c>
+      <c r="D388">
+        <v>149</v>
+      </c>
+      <c r="E388">
+        <v>552.49</v>
+      </c>
+      <c r="F388">
+        <v>191.16</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A389">
+        <v>490712</v>
+      </c>
+      <c r="B389">
+        <v>-69</v>
+      </c>
+      <c r="C389">
+        <v>153</v>
+      </c>
+      <c r="D389">
+        <v>147</v>
+      </c>
+      <c r="E389">
+        <v>551.27</v>
+      </c>
+      <c r="F389">
+        <v>189.94</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A390">
+        <v>490735</v>
+      </c>
+      <c r="B390">
+        <v>-69</v>
+      </c>
+      <c r="C390">
+        <v>151</v>
+      </c>
+      <c r="D390">
+        <v>145</v>
+      </c>
+      <c r="E390">
+        <v>553.71</v>
+      </c>
+      <c r="F390">
+        <v>192.38</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A391">
+        <v>490756</v>
+      </c>
+      <c r="B391">
+        <v>-80</v>
+      </c>
+      <c r="C391">
+        <v>149</v>
+      </c>
+      <c r="D391">
+        <v>142</v>
+      </c>
+      <c r="E391">
+        <v>552.49</v>
+      </c>
+      <c r="F391">
+        <v>192.38</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A392">
+        <v>490778</v>
+      </c>
+      <c r="B392">
+        <v>-80</v>
+      </c>
+      <c r="C392">
+        <v>147</v>
+      </c>
+      <c r="D392">
+        <v>140</v>
+      </c>
+      <c r="E392">
+        <v>552.49</v>
+      </c>
+      <c r="F392">
+        <v>189.94</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A393">
+        <v>490800</v>
+      </c>
+      <c r="B393">
+        <v>-80</v>
+      </c>
+      <c r="C393">
+        <v>145</v>
+      </c>
+      <c r="D393">
+        <v>138</v>
+      </c>
+      <c r="E393">
+        <v>552.49</v>
+      </c>
+      <c r="F393">
+        <v>189.94</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A394">
+        <v>490822</v>
+      </c>
+      <c r="B394">
+        <v>-34</v>
+      </c>
+      <c r="C394">
+        <v>139</v>
+      </c>
+      <c r="D394">
+        <v>136</v>
+      </c>
+      <c r="E394">
+        <v>553.71</v>
+      </c>
+      <c r="F394">
+        <v>186.28</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <v>490844</v>
+      </c>
+      <c r="B395">
+        <v>-23</v>
+      </c>
+      <c r="C395">
+        <v>136</v>
+      </c>
+      <c r="D395">
+        <v>134</v>
+      </c>
+      <c r="E395">
+        <v>553.71</v>
+      </c>
+      <c r="F395">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A396">
+        <v>490866</v>
+      </c>
+      <c r="B396">
+        <v>-69</v>
+      </c>
+      <c r="C396">
+        <v>137</v>
+      </c>
+      <c r="D396">
+        <v>131</v>
+      </c>
+      <c r="E396">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F396">
+        <v>188.72</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A397">
+        <v>490888</v>
+      </c>
+      <c r="B397">
+        <v>-80</v>
+      </c>
+      <c r="C397">
+        <v>136</v>
+      </c>
+      <c r="D397">
+        <v>129</v>
+      </c>
+      <c r="E397">
+        <v>553.71</v>
+      </c>
+      <c r="F397">
+        <v>186.28</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A398">
+        <v>490910</v>
+      </c>
+      <c r="B398">
+        <v>-92</v>
+      </c>
+      <c r="C398">
+        <v>135</v>
+      </c>
+      <c r="D398">
+        <v>127</v>
+      </c>
+      <c r="E398">
+        <v>553.71</v>
+      </c>
+      <c r="F398">
+        <v>186.28</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A399">
+        <v>490932</v>
+      </c>
+      <c r="B399">
+        <v>-57</v>
+      </c>
+      <c r="C399">
+        <v>130</v>
+      </c>
+      <c r="D399">
+        <v>125</v>
+      </c>
+      <c r="E399">
+        <v>553.71</v>
+      </c>
+      <c r="F399">
+        <v>188.72</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A400">
+        <v>490954</v>
+      </c>
+      <c r="B400">
+        <v>-57</v>
+      </c>
+      <c r="C400">
+        <v>128</v>
+      </c>
+      <c r="D400">
+        <v>123</v>
+      </c>
+      <c r="E400">
+        <v>553.71</v>
+      </c>
+      <c r="F400">
+        <v>186.28</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A401">
+        <v>490976</v>
+      </c>
+      <c r="B401">
+        <v>-69</v>
+      </c>
+      <c r="C401">
+        <v>126</v>
+      </c>
+      <c r="D401">
+        <v>120</v>
+      </c>
+      <c r="E401">
+        <v>552.49</v>
+      </c>
+      <c r="F401">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A402">
+        <v>490998</v>
+      </c>
+      <c r="B402">
+        <v>-57</v>
+      </c>
+      <c r="C402">
+        <v>123</v>
+      </c>
+      <c r="D402">
+        <v>118</v>
+      </c>
+      <c r="E402">
+        <v>551.27</v>
+      </c>
+      <c r="F402">
+        <v>186.28</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A403">
+        <v>491020</v>
+      </c>
+      <c r="B403">
+        <v>-69</v>
+      </c>
+      <c r="C403">
+        <v>122</v>
+      </c>
+      <c r="D403">
+        <v>116</v>
+      </c>
+      <c r="E403">
+        <v>552.49</v>
+      </c>
+      <c r="F403">
+        <v>186.28</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A404">
+        <v>491042</v>
+      </c>
+      <c r="B404">
+        <v>-57</v>
+      </c>
+      <c r="C404">
+        <v>119</v>
+      </c>
+      <c r="D404">
+        <v>114</v>
+      </c>
+      <c r="E404">
+        <v>553.71</v>
+      </c>
+      <c r="F404">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A405">
+        <v>491064</v>
+      </c>
+      <c r="B405">
+        <v>-46</v>
+      </c>
+      <c r="C405">
+        <v>116</v>
+      </c>
+      <c r="D405">
+        <v>112</v>
+      </c>
+      <c r="E405">
+        <v>552.49</v>
+      </c>
+      <c r="F405">
+        <v>185.06</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A406">
+        <v>491086</v>
+      </c>
+      <c r="B406">
+        <v>-80</v>
+      </c>
+      <c r="C406">
+        <v>116</v>
+      </c>
+      <c r="D406">
+        <v>109</v>
+      </c>
+      <c r="E406">
+        <v>553.71</v>
+      </c>
+      <c r="F406">
+        <v>183.84</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A407">
+        <v>491108</v>
+      </c>
+      <c r="B407">
+        <v>-92</v>
+      </c>
+      <c r="C407">
+        <v>115</v>
+      </c>
+      <c r="D407">
+        <v>107</v>
+      </c>
+      <c r="E407">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F407">
+        <v>182.62</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A408">
+        <v>491130</v>
+      </c>
+      <c r="B408">
+        <v>-69</v>
+      </c>
+      <c r="C408">
+        <v>111</v>
+      </c>
+      <c r="D408">
+        <v>105</v>
+      </c>
+      <c r="E408">
+        <v>552.49</v>
+      </c>
+      <c r="F408">
+        <v>185.06</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A409">
+        <v>491152</v>
+      </c>
+      <c r="B409">
+        <v>-69</v>
+      </c>
+      <c r="C409">
+        <v>109</v>
+      </c>
+      <c r="D409">
+        <v>103</v>
+      </c>
+      <c r="E409">
+        <v>551.27</v>
+      </c>
+      <c r="F409">
+        <v>183.84</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A410">
+        <v>491174</v>
+      </c>
+      <c r="B410">
+        <v>-69</v>
+      </c>
+      <c r="C410">
+        <v>107</v>
+      </c>
+      <c r="D410">
+        <v>101</v>
+      </c>
+      <c r="E410">
+        <v>553.71</v>
+      </c>
+      <c r="F410">
+        <v>183.84</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A411">
+        <v>491196</v>
+      </c>
+      <c r="B411">
+        <v>-103</v>
+      </c>
+      <c r="C411">
+        <v>107</v>
+      </c>
+      <c r="D411">
+        <v>98</v>
+      </c>
+      <c r="E411">
+        <v>551.27</v>
+      </c>
+      <c r="F411">
+        <v>181.4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A412">
+        <v>491218</v>
+      </c>
+      <c r="B412">
+        <v>-11</v>
+      </c>
+      <c r="C412">
+        <v>97</v>
+      </c>
+      <c r="D412">
+        <v>96</v>
+      </c>
+      <c r="E412">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F412">
+        <v>183.84</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A413">
+        <v>491240</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>94</v>
+      </c>
+      <c r="D413">
+        <v>94</v>
+      </c>
+      <c r="E413">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F413">
+        <v>181.4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A414">
+        <v>491262</v>
+      </c>
+      <c r="B414">
+        <v>-46</v>
+      </c>
+      <c r="C414">
+        <v>96</v>
+      </c>
+      <c r="D414">
+        <v>92</v>
+      </c>
+      <c r="E414">
+        <v>553.71</v>
+      </c>
+      <c r="F414">
+        <v>182.62</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A415">
+        <v>491285</v>
+      </c>
+      <c r="B415">
+        <v>-80</v>
+      </c>
+      <c r="C415">
+        <v>96</v>
+      </c>
+      <c r="D415">
+        <v>89</v>
+      </c>
+      <c r="E415">
+        <v>553.71</v>
+      </c>
+      <c r="F415">
+        <v>182.62</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A416">
+        <v>491307</v>
+      </c>
+      <c r="B416">
+        <v>-80</v>
+      </c>
+      <c r="C416">
+        <v>94</v>
+      </c>
+      <c r="D416">
+        <v>87</v>
+      </c>
+      <c r="E416">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F416">
+        <v>178.96</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A417">
+        <v>491329</v>
+      </c>
+      <c r="B417">
+        <v>-69</v>
+      </c>
+      <c r="C417">
+        <v>91</v>
+      </c>
+      <c r="D417">
+        <v>85</v>
+      </c>
+      <c r="E417">
+        <v>553.71</v>
+      </c>
+      <c r="F417">
+        <v>181.4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A418">
+        <v>491351</v>
+      </c>
+      <c r="B418">
+        <v>-69</v>
+      </c>
+      <c r="C418">
+        <v>89</v>
+      </c>
+      <c r="D418">
+        <v>83</v>
+      </c>
+      <c r="E418">
+        <v>553.71</v>
+      </c>
+      <c r="F418">
+        <v>181.4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A419">
+        <v>491373</v>
+      </c>
+      <c r="B419">
+        <v>-69</v>
+      </c>
+      <c r="C419">
+        <v>87</v>
+      </c>
+      <c r="D419">
+        <v>81</v>
+      </c>
+      <c r="E419">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F419">
+        <v>178.96</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A420">
+        <v>491395</v>
+      </c>
+      <c r="B420">
+        <v>-69</v>
+      </c>
+      <c r="C420">
+        <v>85</v>
+      </c>
+      <c r="D420">
+        <v>79</v>
+      </c>
+      <c r="E420">
+        <v>556.15</v>
+      </c>
+      <c r="F420">
+        <v>180.18</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A421">
+        <v>491417</v>
+      </c>
+      <c r="B421">
+        <v>-92</v>
+      </c>
+      <c r="C421">
+        <v>84</v>
+      </c>
+      <c r="D421">
+        <v>76</v>
+      </c>
+      <c r="E421">
+        <v>551.27</v>
+      </c>
+      <c r="F421">
+        <v>181.4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A422">
+        <v>491439</v>
+      </c>
+      <c r="B422">
+        <v>-46</v>
+      </c>
+      <c r="C422">
+        <v>78</v>
+      </c>
+      <c r="D422">
+        <v>74</v>
+      </c>
+      <c r="E422">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F422">
+        <v>178.96</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A423">
+        <v>491461</v>
+      </c>
+      <c r="B423">
+        <v>-69</v>
+      </c>
+      <c r="C423">
+        <v>78</v>
+      </c>
+      <c r="D423">
+        <v>72</v>
+      </c>
+      <c r="E423">
+        <v>556.15</v>
+      </c>
+      <c r="F423">
+        <v>180.18</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A424">
+        <v>491483</v>
+      </c>
+      <c r="B424">
+        <v>255</v>
+      </c>
+      <c r="C424">
+        <v>74</v>
+      </c>
+      <c r="D424">
+        <v>70</v>
+      </c>
+      <c r="E424">
+        <v>556.15</v>
+      </c>
+      <c r="F424">
+        <v>181.4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A425">
+        <v>491505</v>
+      </c>
+      <c r="B425">
+        <v>-57</v>
+      </c>
+      <c r="C425">
+        <v>73</v>
+      </c>
+      <c r="D425">
+        <v>68</v>
+      </c>
+      <c r="E425">
+        <v>556.15</v>
+      </c>
+      <c r="F425">
+        <v>178.96</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A426">
+        <v>491527</v>
+      </c>
+      <c r="B426">
+        <v>-80</v>
+      </c>
+      <c r="C426">
+        <v>72</v>
+      </c>
+      <c r="D426">
+        <v>65</v>
+      </c>
+      <c r="E426">
+        <v>552.49</v>
+      </c>
+      <c r="F426">
+        <v>177.73</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A427">
+        <v>491549</v>
+      </c>
+      <c r="B427">
+        <v>-80</v>
+      </c>
+      <c r="C427">
+        <v>70</v>
+      </c>
+      <c r="D427">
+        <v>63</v>
+      </c>
+      <c r="E427">
+        <v>552.49</v>
+      </c>
+      <c r="F427">
+        <v>177.73</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A428">
+        <v>491571</v>
+      </c>
+      <c r="B428">
+        <v>-69</v>
+      </c>
+      <c r="C428">
+        <v>67</v>
+      </c>
+      <c r="D428">
+        <v>61</v>
+      </c>
+      <c r="E428">
+        <v>553.71</v>
+      </c>
+      <c r="F428">
+        <v>176.51</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A429">
+        <v>491593</v>
+      </c>
+      <c r="B429">
+        <v>-57</v>
+      </c>
+      <c r="C429">
+        <v>64</v>
+      </c>
+      <c r="D429">
+        <v>59</v>
+      </c>
+      <c r="E429">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F429">
+        <v>176.51</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A430">
+        <v>491615</v>
+      </c>
+      <c r="B430">
+        <v>-80</v>
+      </c>
+      <c r="C430">
+        <v>63</v>
+      </c>
+      <c r="D430">
+        <v>56</v>
+      </c>
+      <c r="E430">
+        <v>553.71</v>
+      </c>
+      <c r="F430">
+        <v>178.96</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A431">
+        <v>491637</v>
+      </c>
+      <c r="B431">
+        <v>-80</v>
+      </c>
+      <c r="C431">
+        <v>61</v>
+      </c>
+      <c r="D431">
+        <v>54</v>
+      </c>
+      <c r="E431">
+        <v>556.15</v>
+      </c>
+      <c r="F431">
+        <v>177.73</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A432">
+        <v>491659</v>
+      </c>
+      <c r="B432">
+        <v>-92</v>
+      </c>
+      <c r="C432">
+        <v>60</v>
+      </c>
+      <c r="D432">
+        <v>52</v>
+      </c>
+      <c r="E432">
+        <v>553.71</v>
+      </c>
+      <c r="F432">
+        <v>175.29</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A433">
+        <v>491681</v>
+      </c>
+      <c r="B433">
+        <v>-69</v>
+      </c>
+      <c r="C433">
+        <v>56</v>
+      </c>
+      <c r="D433">
+        <v>50</v>
+      </c>
+      <c r="E433">
+        <v>553.71</v>
+      </c>
+      <c r="F433">
+        <v>176.51</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A434">
+        <v>491703</v>
+      </c>
+      <c r="B434">
+        <v>-69</v>
+      </c>
+      <c r="C434">
+        <v>54</v>
+      </c>
+      <c r="D434">
+        <v>48</v>
+      </c>
+      <c r="E434">
+        <v>556.15</v>
+      </c>
+      <c r="F434">
+        <v>176.51</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A435">
+        <v>491725</v>
+      </c>
+      <c r="B435">
+        <v>-92</v>
+      </c>
+      <c r="C435">
+        <v>54</v>
+      </c>
+      <c r="D435">
+        <v>46</v>
+      </c>
+      <c r="E435">
+        <v>556.15</v>
+      </c>
+      <c r="F435">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A436">
+        <v>491747</v>
+      </c>
+      <c r="B436">
+        <v>-69</v>
+      </c>
+      <c r="C436">
+        <v>49</v>
+      </c>
+      <c r="D436">
+        <v>43</v>
+      </c>
+      <c r="E436">
+        <v>553.71</v>
+      </c>
+      <c r="F436">
+        <v>177.73</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A437">
+        <v>491769</v>
+      </c>
+      <c r="B437">
+        <v>-80</v>
+      </c>
+      <c r="C437">
+        <v>48</v>
+      </c>
+      <c r="D437">
+        <v>41</v>
+      </c>
+      <c r="E437">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F437">
+        <v>176.51</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A438">
+        <v>491791</v>
+      </c>
+      <c r="B438">
+        <v>-103</v>
+      </c>
+      <c r="C438">
+        <v>48</v>
+      </c>
+      <c r="D438">
+        <v>39</v>
+      </c>
+      <c r="E438">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F438">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A439">
+        <v>491813</v>
+      </c>
+      <c r="B439">
+        <v>-103</v>
+      </c>
+      <c r="C439">
+        <v>46</v>
+      </c>
+      <c r="D439">
+        <v>37</v>
+      </c>
+      <c r="E439">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F439">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A440">
+        <v>491835</v>
+      </c>
+      <c r="B440">
+        <v>-57</v>
+      </c>
+      <c r="C440">
+        <v>40</v>
+      </c>
+      <c r="D440">
+        <v>35</v>
+      </c>
+      <c r="E440">
+        <v>556.15</v>
+      </c>
+      <c r="F440">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A441">
+        <v>491857</v>
+      </c>
+      <c r="B441">
+        <v>-92</v>
+      </c>
+      <c r="C441">
+        <v>40</v>
+      </c>
+      <c r="D441">
+        <v>32</v>
+      </c>
+      <c r="E441">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F441">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A442">
+        <v>491879</v>
+      </c>
+      <c r="B442">
+        <v>-103</v>
+      </c>
+      <c r="C442">
+        <v>39</v>
+      </c>
+      <c r="D442">
+        <v>30</v>
+      </c>
+      <c r="E442">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F442">
+        <v>171.63</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A443">
+        <v>491901</v>
+      </c>
+      <c r="B443">
+        <v>-103</v>
+      </c>
+      <c r="C443">
+        <v>37</v>
+      </c>
+      <c r="D443">
+        <v>28</v>
+      </c>
+      <c r="E443">
+        <v>557.37</v>
+      </c>
+      <c r="F443">
+        <v>172.85</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A444">
+        <v>491923</v>
+      </c>
+      <c r="B444">
+        <v>-115</v>
+      </c>
+      <c r="C444">
+        <v>36</v>
+      </c>
+      <c r="D444">
+        <v>26</v>
+      </c>
+      <c r="E444">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F444">
+        <v>170.41</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A445">
+        <v>491945</v>
+      </c>
+      <c r="B445">
+        <v>-115</v>
+      </c>
+      <c r="C445">
+        <v>33</v>
+      </c>
+      <c r="D445">
+        <v>23</v>
+      </c>
+      <c r="E445">
+        <v>556.15</v>
+      </c>
+      <c r="F445">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A446">
+        <v>491968</v>
+      </c>
+      <c r="B446">
+        <v>-92</v>
+      </c>
+      <c r="C446">
+        <v>29</v>
+      </c>
+      <c r="D446">
+        <v>21</v>
+      </c>
+      <c r="E446">
+        <v>557.37</v>
+      </c>
+      <c r="F446">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A447">
+        <v>491990</v>
+      </c>
+      <c r="B447">
+        <v>-115</v>
+      </c>
+      <c r="C447">
+        <v>29</v>
+      </c>
+      <c r="D447">
+        <v>19</v>
+      </c>
+      <c r="E447">
+        <v>557.37</v>
+      </c>
+      <c r="F447">
+        <v>174.07</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A448">
+        <v>492012</v>
+      </c>
+      <c r="B448">
+        <v>-126</v>
+      </c>
+      <c r="C448">
+        <v>28</v>
+      </c>
+      <c r="D448">
+        <v>17</v>
+      </c>
+      <c r="E448">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F448">
+        <v>172.85</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A449">
+        <v>492034</v>
+      </c>
+      <c r="B449">
+        <v>-138</v>
+      </c>
+      <c r="C449">
+        <v>27</v>
+      </c>
+      <c r="D449">
+        <v>15</v>
+      </c>
+      <c r="E449">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F449">
+        <v>171.63</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A450">
+        <v>492057</v>
+      </c>
+      <c r="B450">
+        <v>-161</v>
+      </c>
+      <c r="C450">
+        <v>26</v>
+      </c>
+      <c r="D450">
+        <v>12</v>
+      </c>
+      <c r="E450">
+        <v>557.37</v>
+      </c>
+      <c r="F450">
+        <v>170.41</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A451">
+        <v>492078</v>
+      </c>
+      <c r="B451">
+        <v>-138</v>
+      </c>
+      <c r="C451">
+        <v>22</v>
+      </c>
+      <c r="D451">
+        <v>10</v>
+      </c>
+      <c r="E451">
+        <v>556.15</v>
+      </c>
+      <c r="F451">
+        <v>171.63</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A452">
+        <v>492100</v>
+      </c>
+      <c r="B452">
+        <v>-149</v>
+      </c>
+      <c r="C452">
+        <v>21</v>
+      </c>
+      <c r="D452">
+        <v>8</v>
+      </c>
+      <c r="E452">
+        <v>557.37</v>
+      </c>
+      <c r="F452">
+        <v>169.19</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A453">
+        <v>492122</v>
+      </c>
+      <c r="B453">
+        <v>-161</v>
+      </c>
+      <c r="C453">
+        <v>20</v>
+      </c>
+      <c r="D453">
+        <v>6</v>
+      </c>
+      <c r="E453">
+        <v>554.92999999999995</v>
+      </c>
+      <c r="F453">
+        <v>169.19</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A454">
+        <v>492144</v>
+      </c>
+      <c r="B454">
+        <v>-161</v>
+      </c>
+      <c r="C454">
+        <v>18</v>
+      </c>
+      <c r="D454">
+        <v>4</v>
+      </c>
+      <c r="E454">
+        <v>553.71</v>
+      </c>
+      <c r="F454">
+        <v>171.63</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A455">
+        <v>492166</v>
+      </c>
+      <c r="B455">
+        <v>-161</v>
+      </c>
+      <c r="C455">
+        <v>15</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>556.15</v>
+      </c>
+      <c r="F455">
+        <v>169.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/1311021 cv-char.xlsx
+++ b/data/1311021 cv-char.xlsx
@@ -4208,7 +4208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F455"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
